--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10101_Login.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10101_Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{1A2E8ADB-C91F-47E2-9147-BD776497B5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F3BEA5-5D82-49A0-ADF2-A8C3EBF0E946}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -42,35 +42,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4B7EF324-772E-4A15-BB4B-E9A545BDF6EC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -102,120 +73,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{3D5AEB20-E4E3-4405-950D-BE5526C79034}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{469647BD-C2DC-4E0E-A5A6-34C96C008CC7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「二重サブミット」は
-「dupulicate form submission」
-と訳してください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{0FB02002-2A4E-4630-A1F1-AE3EB1306FDE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{2ECF2D5F-CCDB-48BF-BEFF-3A1229B9D301}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「画面構成」は「Screen structure」としてください。
-他のセルについても同様に「structure」に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -226,35 +83,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C6C9E420-C01C-4181-9C67-5C54C560F120}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -270,90 +98,6 @@
 B: Increment when the item of confirmation viewpoint 3 changes
 C: Increment if test content changes
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{80D3DAE4-F254-4BA6-9C2D-C330FBC4E3DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Back event」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{A0AFBC5B-98EE-42E4-9F21-1B7B191C49FA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{2CE51270-5261-4BE1-9810-703156E35000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」
-としてください。</t>
         </r>
       </text>
     </comment>
@@ -1202,9 +946,6 @@
     <t>Screen unit</t>
   </si>
   <si>
-    <t>Screen configuration</t>
-  </si>
-  <si>
     <t>Configuration and arrangement of the entire screen</t>
   </si>
   <si>
@@ -1753,6 +1494,9 @@
   </si>
   <si>
     <t>Confirmation of subfunction execution</t>
+  </si>
+  <si>
+    <t>Screen structure</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1508,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -1880,21 +1624,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3938,6 +3667,114 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3974,9 +3811,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4016,112 +3850,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4941,9 +4670,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -5029,18 +4758,18 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9"/>
@@ -5547,63 +5276,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="23"/>
+    <col min="1" max="16384" width="3.625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="302" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="331" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="333"/>
-      <c r="O1" s="337" t="s">
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="311" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="339"/>
-      <c r="S1" s="346" t="s">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="320" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="347"/>
-      <c r="U1" s="347"/>
-      <c r="V1" s="347"/>
-      <c r="W1" s="347"/>
-      <c r="X1" s="347"/>
-      <c r="Y1" s="347"/>
-      <c r="Z1" s="348"/>
-      <c r="AA1" s="328" t="s">
+      <c r="T1" s="321"/>
+      <c r="U1" s="321"/>
+      <c r="V1" s="321"/>
+      <c r="W1" s="321"/>
+      <c r="X1" s="321"/>
+      <c r="Y1" s="321"/>
+      <c r="Z1" s="322"/>
+      <c r="AA1" s="302" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="355" t="str">
+      <c r="AB1" s="304"/>
+      <c r="AC1" s="329" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="356"/>
-      <c r="AE1" s="356"/>
-      <c r="AF1" s="357"/>
-      <c r="AG1" s="322">
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="331"/>
+      <c r="AG1" s="296">
         <f>IF(D8="","",D8)</f>
         <v>43737</v>
       </c>
-      <c r="AH1" s="323"/>
-      <c r="AI1" s="324"/>
+      <c r="AH1" s="297"/>
+      <c r="AI1" s="298"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -5611,53 +5340,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="331" t="s">
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="305" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="332"/>
-      <c r="L2" s="332"/>
-      <c r="M2" s="332"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="340"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
-      <c r="R2" s="342"/>
-      <c r="S2" s="349"/>
-      <c r="T2" s="350"/>
-      <c r="U2" s="350"/>
-      <c r="V2" s="350"/>
-      <c r="W2" s="350"/>
-      <c r="X2" s="350"/>
-      <c r="Y2" s="350"/>
-      <c r="Z2" s="351"/>
-      <c r="AA2" s="328" t="s">
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="307"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="323"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="325"/>
+      <c r="AA2" s="302" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="330"/>
-      <c r="AC2" s="334" t="str">
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="308" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="335"/>
-      <c r="AE2" s="335"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="322" t="str">
+      <c r="AD2" s="309"/>
+      <c r="AE2" s="309"/>
+      <c r="AF2" s="310"/>
+      <c r="AG2" s="296" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="323"/>
-      <c r="AI2" s="324"/>
+      <c r="AH2" s="297"/>
+      <c r="AI2" s="298"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -5665,45 +5394,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="302" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="331" t="s">
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="305" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
-      <c r="J3" s="332"/>
-      <c r="K3" s="332"/>
-      <c r="L3" s="332"/>
-      <c r="M3" s="332"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="343"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="345"/>
-      <c r="S3" s="352"/>
-      <c r="T3" s="353"/>
-      <c r="U3" s="353"/>
-      <c r="V3" s="353"/>
-      <c r="W3" s="353"/>
-      <c r="X3" s="353"/>
-      <c r="Y3" s="353"/>
-      <c r="Z3" s="354"/>
-      <c r="AA3" s="328"/>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="355"/>
-      <c r="AD3" s="356"/>
-      <c r="AE3" s="356"/>
-      <c r="AF3" s="357"/>
-      <c r="AG3" s="322"/>
-      <c r="AH3" s="323"/>
-      <c r="AI3" s="324"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="306"/>
+      <c r="H3" s="306"/>
+      <c r="I3" s="306"/>
+      <c r="J3" s="306"/>
+      <c r="K3" s="306"/>
+      <c r="L3" s="306"/>
+      <c r="M3" s="306"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="326"/>
+      <c r="T3" s="327"/>
+      <c r="U3" s="327"/>
+      <c r="V3" s="327"/>
+      <c r="W3" s="327"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="327"/>
+      <c r="Z3" s="328"/>
+      <c r="AA3" s="302"/>
+      <c r="AB3" s="304"/>
+      <c r="AC3" s="329"/>
+      <c r="AD3" s="330"/>
+      <c r="AE3" s="330"/>
+      <c r="AF3" s="331"/>
+      <c r="AG3" s="296"/>
+      <c r="AH3" s="297"/>
+      <c r="AI3" s="298"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -5740,1034 +5469,1190 @@
       <c r="A7" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="325" t="s">
+      <c r="B7" s="299" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="326"/>
-      <c r="D7" s="325" t="s">
+      <c r="C7" s="300"/>
+      <c r="D7" s="299" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="325" t="s">
+      <c r="E7" s="301"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="299" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="327"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="325" t="s">
+      <c r="H7" s="301"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="299" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="327"/>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="327"/>
-      <c r="P7" s="326"/>
-      <c r="Q7" s="325" t="s">
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="301"/>
+      <c r="O7" s="301"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="299" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="327"/>
-      <c r="S7" s="327"/>
-      <c r="T7" s="327"/>
-      <c r="U7" s="327"/>
-      <c r="V7" s="327"/>
-      <c r="W7" s="327"/>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
-      <c r="AA7" s="327"/>
-      <c r="AB7" s="327"/>
-      <c r="AC7" s="327"/>
-      <c r="AD7" s="327"/>
-      <c r="AE7" s="326"/>
-      <c r="AF7" s="325" t="s">
+      <c r="R7" s="301"/>
+      <c r="S7" s="301"/>
+      <c r="T7" s="301"/>
+      <c r="U7" s="301"/>
+      <c r="V7" s="301"/>
+      <c r="W7" s="301"/>
+      <c r="X7" s="301"/>
+      <c r="Y7" s="301"/>
+      <c r="Z7" s="301"/>
+      <c r="AA7" s="301"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="301"/>
+      <c r="AE7" s="300"/>
+      <c r="AF7" s="299" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="327"/>
-      <c r="AH7" s="327"/>
-      <c r="AI7" s="326"/>
+      <c r="AG7" s="301"/>
+      <c r="AH7" s="301"/>
+      <c r="AI7" s="300"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="309" t="s">
+      <c r="B8" s="344" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="310"/>
-      <c r="D8" s="311">
+      <c r="C8" s="345"/>
+      <c r="D8" s="346">
         <v>43737</v>
       </c>
-      <c r="E8" s="312"/>
-      <c r="F8" s="313"/>
-      <c r="G8" s="314" t="s">
+      <c r="E8" s="347"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="349" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="315"/>
-      <c r="I8" s="310"/>
-      <c r="J8" s="316" t="s">
+      <c r="H8" s="350"/>
+      <c r="I8" s="345"/>
+      <c r="J8" s="351" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="317"/>
-      <c r="P8" s="318"/>
-      <c r="Q8" s="319" t="s">
+      <c r="K8" s="352"/>
+      <c r="L8" s="352"/>
+      <c r="M8" s="352"/>
+      <c r="N8" s="352"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="353"/>
+      <c r="Q8" s="354" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="320"/>
-      <c r="S8" s="320"/>
-      <c r="T8" s="320"/>
-      <c r="U8" s="320"/>
-      <c r="V8" s="320"/>
-      <c r="W8" s="320"/>
-      <c r="X8" s="320"/>
-      <c r="Y8" s="320"/>
-      <c r="Z8" s="320"/>
-      <c r="AA8" s="320"/>
-      <c r="AB8" s="320"/>
-      <c r="AC8" s="320"/>
-      <c r="AD8" s="320"/>
-      <c r="AE8" s="321"/>
-      <c r="AF8" s="316" t="s">
+      <c r="R8" s="355"/>
+      <c r="S8" s="355"/>
+      <c r="T8" s="355"/>
+      <c r="U8" s="355"/>
+      <c r="V8" s="355"/>
+      <c r="W8" s="355"/>
+      <c r="X8" s="355"/>
+      <c r="Y8" s="355"/>
+      <c r="Z8" s="355"/>
+      <c r="AA8" s="355"/>
+      <c r="AB8" s="355"/>
+      <c r="AC8" s="355"/>
+      <c r="AD8" s="355"/>
+      <c r="AE8" s="356"/>
+      <c r="AF8" s="351" t="s">
         <v>123</v>
       </c>
-      <c r="AG8" s="317"/>
-      <c r="AH8" s="317"/>
-      <c r="AI8" s="318"/>
+      <c r="AG8" s="352"/>
+      <c r="AH8" s="352"/>
+      <c r="AI8" s="353"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="296"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
-      <c r="P9" s="304"/>
-      <c r="Q9" s="305"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
-      <c r="AD9" s="306"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="302"/>
-      <c r="AG9" s="303"/>
-      <c r="AH9" s="303"/>
-      <c r="AI9" s="304"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="334"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="338"/>
+      <c r="K9" s="339"/>
+      <c r="L9" s="339"/>
+      <c r="M9" s="339"/>
+      <c r="N9" s="339"/>
+      <c r="O9" s="339"/>
+      <c r="P9" s="340"/>
+      <c r="Q9" s="341"/>
+      <c r="R9" s="342"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="V9" s="342"/>
+      <c r="W9" s="342"/>
+      <c r="X9" s="342"/>
+      <c r="Y9" s="342"/>
+      <c r="Z9" s="342"/>
+      <c r="AA9" s="342"/>
+      <c r="AB9" s="342"/>
+      <c r="AC9" s="342"/>
+      <c r="AD9" s="342"/>
+      <c r="AE9" s="343"/>
+      <c r="AF9" s="338"/>
+      <c r="AG9" s="339"/>
+      <c r="AH9" s="339"/>
+      <c r="AI9" s="340"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="296"/>
-      <c r="C10" s="297"/>
-      <c r="D10" s="298"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="297"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="303"/>
-      <c r="L10" s="303"/>
-      <c r="M10" s="303"/>
-      <c r="N10" s="303"/>
-      <c r="O10" s="303"/>
-      <c r="P10" s="304"/>
-      <c r="Q10" s="305"/>
-      <c r="R10" s="306"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="306"/>
-      <c r="V10" s="306"/>
-      <c r="W10" s="306"/>
-      <c r="X10" s="306"/>
-      <c r="Y10" s="306"/>
-      <c r="Z10" s="306"/>
-      <c r="AA10" s="306"/>
-      <c r="AB10" s="306"/>
-      <c r="AC10" s="306"/>
-      <c r="AD10" s="306"/>
-      <c r="AE10" s="307"/>
-      <c r="AF10" s="302"/>
-      <c r="AG10" s="303"/>
-      <c r="AH10" s="303"/>
-      <c r="AI10" s="304"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="335"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="333"/>
+      <c r="J10" s="338"/>
+      <c r="K10" s="339"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="339"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="340"/>
+      <c r="Q10" s="341"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="342"/>
+      <c r="T10" s="342"/>
+      <c r="U10" s="342"/>
+      <c r="V10" s="342"/>
+      <c r="W10" s="342"/>
+      <c r="X10" s="342"/>
+      <c r="Y10" s="342"/>
+      <c r="Z10" s="342"/>
+      <c r="AA10" s="342"/>
+      <c r="AB10" s="342"/>
+      <c r="AC10" s="342"/>
+      <c r="AD10" s="342"/>
+      <c r="AE10" s="343"/>
+      <c r="AF10" s="338"/>
+      <c r="AG10" s="339"/>
+      <c r="AH10" s="339"/>
+      <c r="AI10" s="340"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="296"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="298"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="296"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="297"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="303"/>
-      <c r="L11" s="303"/>
-      <c r="M11" s="303"/>
-      <c r="N11" s="303"/>
-      <c r="O11" s="303"/>
-      <c r="P11" s="304"/>
-      <c r="Q11" s="305"/>
-      <c r="R11" s="306"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="306"/>
-      <c r="V11" s="306"/>
-      <c r="W11" s="306"/>
-      <c r="X11" s="306"/>
-      <c r="Y11" s="306"/>
-      <c r="Z11" s="306"/>
-      <c r="AA11" s="306"/>
-      <c r="AB11" s="306"/>
-      <c r="AC11" s="306"/>
-      <c r="AD11" s="306"/>
-      <c r="AE11" s="307"/>
-      <c r="AF11" s="302"/>
-      <c r="AG11" s="303"/>
-      <c r="AH11" s="303"/>
-      <c r="AI11" s="304"/>
+      <c r="B11" s="332"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="334"/>
+      <c r="E11" s="335"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="337"/>
+      <c r="I11" s="333"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="339"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="339"/>
+      <c r="O11" s="339"/>
+      <c r="P11" s="340"/>
+      <c r="Q11" s="341"/>
+      <c r="R11" s="342"/>
+      <c r="S11" s="342"/>
+      <c r="T11" s="342"/>
+      <c r="U11" s="342"/>
+      <c r="V11" s="342"/>
+      <c r="W11" s="342"/>
+      <c r="X11" s="342"/>
+      <c r="Y11" s="342"/>
+      <c r="Z11" s="342"/>
+      <c r="AA11" s="342"/>
+      <c r="AB11" s="342"/>
+      <c r="AC11" s="342"/>
+      <c r="AD11" s="342"/>
+      <c r="AE11" s="343"/>
+      <c r="AF11" s="338"/>
+      <c r="AG11" s="339"/>
+      <c r="AH11" s="339"/>
+      <c r="AI11" s="340"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="296"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="298"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="296"/>
-      <c r="H12" s="301"/>
-      <c r="I12" s="297"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="304"/>
-      <c r="Q12" s="305"/>
-      <c r="R12" s="306"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="306"/>
-      <c r="V12" s="306"/>
-      <c r="W12" s="306"/>
-      <c r="X12" s="306"/>
-      <c r="Y12" s="306"/>
-      <c r="Z12" s="306"/>
-      <c r="AA12" s="306"/>
-      <c r="AB12" s="306"/>
-      <c r="AC12" s="306"/>
-      <c r="AD12" s="306"/>
-      <c r="AE12" s="307"/>
-      <c r="AF12" s="302"/>
-      <c r="AG12" s="303"/>
-      <c r="AH12" s="303"/>
-      <c r="AI12" s="304"/>
+      <c r="B12" s="332"/>
+      <c r="C12" s="333"/>
+      <c r="D12" s="334"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="336"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="337"/>
+      <c r="I12" s="333"/>
+      <c r="J12" s="338"/>
+      <c r="K12" s="339"/>
+      <c r="L12" s="339"/>
+      <c r="M12" s="339"/>
+      <c r="N12" s="339"/>
+      <c r="O12" s="339"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="341"/>
+      <c r="R12" s="342"/>
+      <c r="S12" s="342"/>
+      <c r="T12" s="342"/>
+      <c r="U12" s="342"/>
+      <c r="V12" s="342"/>
+      <c r="W12" s="342"/>
+      <c r="X12" s="342"/>
+      <c r="Y12" s="342"/>
+      <c r="Z12" s="342"/>
+      <c r="AA12" s="342"/>
+      <c r="AB12" s="342"/>
+      <c r="AC12" s="342"/>
+      <c r="AD12" s="342"/>
+      <c r="AE12" s="343"/>
+      <c r="AF12" s="338"/>
+      <c r="AG12" s="339"/>
+      <c r="AH12" s="339"/>
+      <c r="AI12" s="340"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="296"/>
-      <c r="C13" s="297"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="297"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="303"/>
-      <c r="N13" s="303"/>
-      <c r="O13" s="303"/>
-      <c r="P13" s="304"/>
-      <c r="Q13" s="305"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="306"/>
-      <c r="V13" s="306"/>
-      <c r="W13" s="306"/>
-      <c r="X13" s="306"/>
-      <c r="Y13" s="306"/>
-      <c r="Z13" s="306"/>
-      <c r="AA13" s="306"/>
-      <c r="AB13" s="306"/>
-      <c r="AC13" s="306"/>
-      <c r="AD13" s="306"/>
-      <c r="AE13" s="307"/>
-      <c r="AF13" s="302"/>
-      <c r="AG13" s="303"/>
-      <c r="AH13" s="303"/>
-      <c r="AI13" s="304"/>
+      <c r="B13" s="332"/>
+      <c r="C13" s="333"/>
+      <c r="D13" s="334"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="332"/>
+      <c r="H13" s="337"/>
+      <c r="I13" s="333"/>
+      <c r="J13" s="338"/>
+      <c r="K13" s="339"/>
+      <c r="L13" s="339"/>
+      <c r="M13" s="339"/>
+      <c r="N13" s="339"/>
+      <c r="O13" s="339"/>
+      <c r="P13" s="340"/>
+      <c r="Q13" s="341"/>
+      <c r="R13" s="342"/>
+      <c r="S13" s="342"/>
+      <c r="T13" s="342"/>
+      <c r="U13" s="342"/>
+      <c r="V13" s="342"/>
+      <c r="W13" s="342"/>
+      <c r="X13" s="342"/>
+      <c r="Y13" s="342"/>
+      <c r="Z13" s="342"/>
+      <c r="AA13" s="342"/>
+      <c r="AB13" s="342"/>
+      <c r="AC13" s="342"/>
+      <c r="AD13" s="342"/>
+      <c r="AE13" s="343"/>
+      <c r="AF13" s="338"/>
+      <c r="AG13" s="339"/>
+      <c r="AH13" s="339"/>
+      <c r="AI13" s="340"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="296"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="298"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="301"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="302"/>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
-      <c r="M14" s="303"/>
-      <c r="N14" s="303"/>
-      <c r="O14" s="303"/>
-      <c r="P14" s="304"/>
-      <c r="Q14" s="305"/>
-      <c r="R14" s="306"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="306"/>
-      <c r="V14" s="306"/>
-      <c r="W14" s="306"/>
-      <c r="X14" s="306"/>
-      <c r="Y14" s="306"/>
-      <c r="Z14" s="306"/>
-      <c r="AA14" s="306"/>
-      <c r="AB14" s="306"/>
-      <c r="AC14" s="306"/>
-      <c r="AD14" s="306"/>
-      <c r="AE14" s="307"/>
-      <c r="AF14" s="302"/>
-      <c r="AG14" s="303"/>
-      <c r="AH14" s="303"/>
-      <c r="AI14" s="304"/>
+      <c r="B14" s="332"/>
+      <c r="C14" s="333"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="335"/>
+      <c r="F14" s="336"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="337"/>
+      <c r="I14" s="333"/>
+      <c r="J14" s="338"/>
+      <c r="K14" s="339"/>
+      <c r="L14" s="339"/>
+      <c r="M14" s="339"/>
+      <c r="N14" s="339"/>
+      <c r="O14" s="339"/>
+      <c r="P14" s="340"/>
+      <c r="Q14" s="341"/>
+      <c r="R14" s="342"/>
+      <c r="S14" s="342"/>
+      <c r="T14" s="342"/>
+      <c r="U14" s="342"/>
+      <c r="V14" s="342"/>
+      <c r="W14" s="342"/>
+      <c r="X14" s="342"/>
+      <c r="Y14" s="342"/>
+      <c r="Z14" s="342"/>
+      <c r="AA14" s="342"/>
+      <c r="AB14" s="342"/>
+      <c r="AC14" s="342"/>
+      <c r="AD14" s="342"/>
+      <c r="AE14" s="343"/>
+      <c r="AF14" s="338"/>
+      <c r="AG14" s="339"/>
+      <c r="AH14" s="339"/>
+      <c r="AI14" s="340"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="296"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="296"/>
-      <c r="H15" s="301"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="302"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="303"/>
-      <c r="O15" s="303"/>
-      <c r="P15" s="304"/>
-      <c r="Q15" s="305"/>
-      <c r="R15" s="306"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="306"/>
-      <c r="V15" s="306"/>
-      <c r="W15" s="306"/>
-      <c r="X15" s="306"/>
-      <c r="Y15" s="306"/>
-      <c r="Z15" s="306"/>
-      <c r="AA15" s="306"/>
-      <c r="AB15" s="306"/>
-      <c r="AC15" s="306"/>
-      <c r="AD15" s="306"/>
-      <c r="AE15" s="307"/>
-      <c r="AF15" s="302"/>
-      <c r="AG15" s="303"/>
-      <c r="AH15" s="303"/>
-      <c r="AI15" s="304"/>
+      <c r="B15" s="332"/>
+      <c r="C15" s="333"/>
+      <c r="D15" s="334"/>
+      <c r="E15" s="335"/>
+      <c r="F15" s="336"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="337"/>
+      <c r="I15" s="333"/>
+      <c r="J15" s="338"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="339"/>
+      <c r="N15" s="339"/>
+      <c r="O15" s="339"/>
+      <c r="P15" s="340"/>
+      <c r="Q15" s="341"/>
+      <c r="R15" s="342"/>
+      <c r="S15" s="342"/>
+      <c r="T15" s="342"/>
+      <c r="U15" s="342"/>
+      <c r="V15" s="342"/>
+      <c r="W15" s="342"/>
+      <c r="X15" s="342"/>
+      <c r="Y15" s="342"/>
+      <c r="Z15" s="342"/>
+      <c r="AA15" s="342"/>
+      <c r="AB15" s="342"/>
+      <c r="AC15" s="342"/>
+      <c r="AD15" s="342"/>
+      <c r="AE15" s="343"/>
+      <c r="AF15" s="338"/>
+      <c r="AG15" s="339"/>
+      <c r="AH15" s="339"/>
+      <c r="AI15" s="340"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="296"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="301"/>
-      <c r="I16" s="297"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="303"/>
-      <c r="L16" s="303"/>
-      <c r="M16" s="303"/>
-      <c r="N16" s="303"/>
-      <c r="O16" s="303"/>
-      <c r="P16" s="304"/>
-      <c r="Q16" s="305"/>
-      <c r="R16" s="306"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="306"/>
-      <c r="V16" s="306"/>
-      <c r="W16" s="306"/>
-      <c r="X16" s="306"/>
-      <c r="Y16" s="306"/>
-      <c r="Z16" s="306"/>
-      <c r="AA16" s="306"/>
-      <c r="AB16" s="306"/>
-      <c r="AC16" s="306"/>
-      <c r="AD16" s="306"/>
-      <c r="AE16" s="307"/>
-      <c r="AF16" s="302"/>
-      <c r="AG16" s="303"/>
-      <c r="AH16" s="303"/>
-      <c r="AI16" s="304"/>
+      <c r="B16" s="332"/>
+      <c r="C16" s="333"/>
+      <c r="D16" s="334"/>
+      <c r="E16" s="335"/>
+      <c r="F16" s="336"/>
+      <c r="G16" s="332"/>
+      <c r="H16" s="337"/>
+      <c r="I16" s="333"/>
+      <c r="J16" s="338"/>
+      <c r="K16" s="339"/>
+      <c r="L16" s="339"/>
+      <c r="M16" s="339"/>
+      <c r="N16" s="339"/>
+      <c r="O16" s="339"/>
+      <c r="P16" s="340"/>
+      <c r="Q16" s="341"/>
+      <c r="R16" s="342"/>
+      <c r="S16" s="342"/>
+      <c r="T16" s="342"/>
+      <c r="U16" s="342"/>
+      <c r="V16" s="342"/>
+      <c r="W16" s="342"/>
+      <c r="X16" s="342"/>
+      <c r="Y16" s="342"/>
+      <c r="Z16" s="342"/>
+      <c r="AA16" s="342"/>
+      <c r="AB16" s="342"/>
+      <c r="AC16" s="342"/>
+      <c r="AD16" s="342"/>
+      <c r="AE16" s="343"/>
+      <c r="AF16" s="338"/>
+      <c r="AG16" s="339"/>
+      <c r="AH16" s="339"/>
+      <c r="AI16" s="340"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="296"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="298"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="301"/>
-      <c r="I17" s="297"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="303"/>
-      <c r="L17" s="303"/>
-      <c r="M17" s="303"/>
-      <c r="N17" s="303"/>
-      <c r="O17" s="303"/>
-      <c r="P17" s="304"/>
-      <c r="Q17" s="305"/>
-      <c r="R17" s="306"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="306"/>
-      <c r="V17" s="306"/>
-      <c r="W17" s="306"/>
-      <c r="X17" s="306"/>
-      <c r="Y17" s="306"/>
-      <c r="Z17" s="306"/>
-      <c r="AA17" s="306"/>
-      <c r="AB17" s="306"/>
-      <c r="AC17" s="306"/>
-      <c r="AD17" s="306"/>
-      <c r="AE17" s="307"/>
-      <c r="AF17" s="302"/>
-      <c r="AG17" s="303"/>
-      <c r="AH17" s="303"/>
-      <c r="AI17" s="304"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="333"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="335"/>
+      <c r="F17" s="336"/>
+      <c r="G17" s="332"/>
+      <c r="H17" s="337"/>
+      <c r="I17" s="333"/>
+      <c r="J17" s="338"/>
+      <c r="K17" s="339"/>
+      <c r="L17" s="339"/>
+      <c r="M17" s="339"/>
+      <c r="N17" s="339"/>
+      <c r="O17" s="339"/>
+      <c r="P17" s="340"/>
+      <c r="Q17" s="341"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="342"/>
+      <c r="T17" s="342"/>
+      <c r="U17" s="342"/>
+      <c r="V17" s="342"/>
+      <c r="W17" s="342"/>
+      <c r="X17" s="342"/>
+      <c r="Y17" s="342"/>
+      <c r="Z17" s="342"/>
+      <c r="AA17" s="342"/>
+      <c r="AB17" s="342"/>
+      <c r="AC17" s="342"/>
+      <c r="AD17" s="342"/>
+      <c r="AE17" s="343"/>
+      <c r="AF17" s="338"/>
+      <c r="AG17" s="339"/>
+      <c r="AH17" s="339"/>
+      <c r="AI17" s="340"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="298"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="301"/>
-      <c r="I18" s="297"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="303"/>
-      <c r="L18" s="303"/>
-      <c r="M18" s="303"/>
-      <c r="N18" s="303"/>
-      <c r="O18" s="303"/>
-      <c r="P18" s="304"/>
-      <c r="Q18" s="305"/>
-      <c r="R18" s="306"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="306"/>
-      <c r="V18" s="306"/>
-      <c r="W18" s="306"/>
-      <c r="X18" s="306"/>
-      <c r="Y18" s="306"/>
-      <c r="Z18" s="306"/>
-      <c r="AA18" s="306"/>
-      <c r="AB18" s="306"/>
-      <c r="AC18" s="306"/>
-      <c r="AD18" s="306"/>
-      <c r="AE18" s="307"/>
-      <c r="AF18" s="302"/>
-      <c r="AG18" s="303"/>
-      <c r="AH18" s="303"/>
-      <c r="AI18" s="304"/>
+      <c r="B18" s="332"/>
+      <c r="C18" s="333"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="335"/>
+      <c r="F18" s="336"/>
+      <c r="G18" s="332"/>
+      <c r="H18" s="337"/>
+      <c r="I18" s="333"/>
+      <c r="J18" s="338"/>
+      <c r="K18" s="339"/>
+      <c r="L18" s="339"/>
+      <c r="M18" s="339"/>
+      <c r="N18" s="339"/>
+      <c r="O18" s="339"/>
+      <c r="P18" s="340"/>
+      <c r="Q18" s="341"/>
+      <c r="R18" s="342"/>
+      <c r="S18" s="342"/>
+      <c r="T18" s="342"/>
+      <c r="U18" s="342"/>
+      <c r="V18" s="342"/>
+      <c r="W18" s="342"/>
+      <c r="X18" s="342"/>
+      <c r="Y18" s="342"/>
+      <c r="Z18" s="342"/>
+      <c r="AA18" s="342"/>
+      <c r="AB18" s="342"/>
+      <c r="AC18" s="342"/>
+      <c r="AD18" s="342"/>
+      <c r="AE18" s="343"/>
+      <c r="AF18" s="338"/>
+      <c r="AG18" s="339"/>
+      <c r="AH18" s="339"/>
+      <c r="AI18" s="340"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="297"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="301"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="302"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="303"/>
-      <c r="N19" s="303"/>
-      <c r="O19" s="303"/>
-      <c r="P19" s="304"/>
-      <c r="Q19" s="305"/>
-      <c r="R19" s="306"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="306"/>
-      <c r="V19" s="306"/>
-      <c r="W19" s="306"/>
-      <c r="X19" s="306"/>
-      <c r="Y19" s="306"/>
-      <c r="Z19" s="306"/>
-      <c r="AA19" s="306"/>
-      <c r="AB19" s="306"/>
-      <c r="AC19" s="306"/>
-      <c r="AD19" s="306"/>
-      <c r="AE19" s="307"/>
-      <c r="AF19" s="302"/>
-      <c r="AG19" s="303"/>
-      <c r="AH19" s="303"/>
-      <c r="AI19" s="304"/>
+      <c r="B19" s="332"/>
+      <c r="C19" s="333"/>
+      <c r="D19" s="334"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="336"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="337"/>
+      <c r="I19" s="333"/>
+      <c r="J19" s="338"/>
+      <c r="K19" s="339"/>
+      <c r="L19" s="339"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="339"/>
+      <c r="O19" s="339"/>
+      <c r="P19" s="340"/>
+      <c r="Q19" s="341"/>
+      <c r="R19" s="342"/>
+      <c r="S19" s="342"/>
+      <c r="T19" s="342"/>
+      <c r="U19" s="342"/>
+      <c r="V19" s="342"/>
+      <c r="W19" s="342"/>
+      <c r="X19" s="342"/>
+      <c r="Y19" s="342"/>
+      <c r="Z19" s="342"/>
+      <c r="AA19" s="342"/>
+      <c r="AB19" s="342"/>
+      <c r="AC19" s="342"/>
+      <c r="AD19" s="342"/>
+      <c r="AE19" s="343"/>
+      <c r="AF19" s="338"/>
+      <c r="AG19" s="339"/>
+      <c r="AH19" s="339"/>
+      <c r="AI19" s="340"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="296"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="298"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="301"/>
-      <c r="I20" s="297"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="303"/>
-      <c r="L20" s="303"/>
-      <c r="M20" s="303"/>
-      <c r="N20" s="303"/>
-      <c r="O20" s="303"/>
-      <c r="P20" s="304"/>
-      <c r="Q20" s="305"/>
-      <c r="R20" s="306"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="306"/>
-      <c r="V20" s="306"/>
-      <c r="W20" s="306"/>
-      <c r="X20" s="306"/>
-      <c r="Y20" s="306"/>
-      <c r="Z20" s="306"/>
-      <c r="AA20" s="306"/>
-      <c r="AB20" s="306"/>
-      <c r="AC20" s="306"/>
-      <c r="AD20" s="306"/>
-      <c r="AE20" s="307"/>
-      <c r="AF20" s="302"/>
-      <c r="AG20" s="303"/>
-      <c r="AH20" s="303"/>
-      <c r="AI20" s="304"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="333"/>
+      <c r="D20" s="334"/>
+      <c r="E20" s="335"/>
+      <c r="F20" s="336"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="337"/>
+      <c r="I20" s="333"/>
+      <c r="J20" s="338"/>
+      <c r="K20" s="339"/>
+      <c r="L20" s="339"/>
+      <c r="M20" s="339"/>
+      <c r="N20" s="339"/>
+      <c r="O20" s="339"/>
+      <c r="P20" s="340"/>
+      <c r="Q20" s="341"/>
+      <c r="R20" s="342"/>
+      <c r="S20" s="342"/>
+      <c r="T20" s="342"/>
+      <c r="U20" s="342"/>
+      <c r="V20" s="342"/>
+      <c r="W20" s="342"/>
+      <c r="X20" s="342"/>
+      <c r="Y20" s="342"/>
+      <c r="Z20" s="342"/>
+      <c r="AA20" s="342"/>
+      <c r="AB20" s="342"/>
+      <c r="AC20" s="342"/>
+      <c r="AD20" s="342"/>
+      <c r="AE20" s="343"/>
+      <c r="AF20" s="338"/>
+      <c r="AG20" s="339"/>
+      <c r="AH20" s="339"/>
+      <c r="AI20" s="340"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="296"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="298"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="301"/>
-      <c r="I21" s="297"/>
-      <c r="J21" s="302"/>
-      <c r="K21" s="303"/>
-      <c r="L21" s="303"/>
-      <c r="M21" s="303"/>
-      <c r="N21" s="303"/>
-      <c r="O21" s="303"/>
-      <c r="P21" s="304"/>
-      <c r="Q21" s="305"/>
-      <c r="R21" s="306"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="306"/>
-      <c r="V21" s="306"/>
-      <c r="W21" s="306"/>
-      <c r="X21" s="306"/>
-      <c r="Y21" s="306"/>
-      <c r="Z21" s="306"/>
-      <c r="AA21" s="306"/>
-      <c r="AB21" s="306"/>
-      <c r="AC21" s="306"/>
-      <c r="AD21" s="306"/>
-      <c r="AE21" s="307"/>
-      <c r="AF21" s="302"/>
-      <c r="AG21" s="303"/>
-      <c r="AH21" s="303"/>
-      <c r="AI21" s="304"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="334"/>
+      <c r="E21" s="335"/>
+      <c r="F21" s="336"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="337"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="338"/>
+      <c r="K21" s="339"/>
+      <c r="L21" s="339"/>
+      <c r="M21" s="339"/>
+      <c r="N21" s="339"/>
+      <c r="O21" s="339"/>
+      <c r="P21" s="340"/>
+      <c r="Q21" s="341"/>
+      <c r="R21" s="342"/>
+      <c r="S21" s="342"/>
+      <c r="T21" s="342"/>
+      <c r="U21" s="342"/>
+      <c r="V21" s="342"/>
+      <c r="W21" s="342"/>
+      <c r="X21" s="342"/>
+      <c r="Y21" s="342"/>
+      <c r="Z21" s="342"/>
+      <c r="AA21" s="342"/>
+      <c r="AB21" s="342"/>
+      <c r="AC21" s="342"/>
+      <c r="AD21" s="342"/>
+      <c r="AE21" s="343"/>
+      <c r="AF21" s="338"/>
+      <c r="AG21" s="339"/>
+      <c r="AH21" s="339"/>
+      <c r="AI21" s="340"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="296"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="298"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="296"/>
-      <c r="H22" s="301"/>
-      <c r="I22" s="297"/>
-      <c r="J22" s="302"/>
-      <c r="K22" s="303"/>
-      <c r="L22" s="303"/>
-      <c r="M22" s="303"/>
-      <c r="N22" s="303"/>
-      <c r="O22" s="303"/>
-      <c r="P22" s="304"/>
-      <c r="Q22" s="305"/>
-      <c r="R22" s="306"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="306"/>
-      <c r="V22" s="306"/>
-      <c r="W22" s="306"/>
-      <c r="X22" s="306"/>
-      <c r="Y22" s="306"/>
-      <c r="Z22" s="306"/>
-      <c r="AA22" s="306"/>
-      <c r="AB22" s="306"/>
-      <c r="AC22" s="306"/>
-      <c r="AD22" s="306"/>
-      <c r="AE22" s="307"/>
-      <c r="AF22" s="302"/>
-      <c r="AG22" s="303"/>
-      <c r="AH22" s="303"/>
-      <c r="AI22" s="304"/>
+      <c r="B22" s="332"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="334"/>
+      <c r="E22" s="335"/>
+      <c r="F22" s="336"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="337"/>
+      <c r="I22" s="333"/>
+      <c r="J22" s="338"/>
+      <c r="K22" s="339"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="339"/>
+      <c r="N22" s="339"/>
+      <c r="O22" s="339"/>
+      <c r="P22" s="340"/>
+      <c r="Q22" s="341"/>
+      <c r="R22" s="342"/>
+      <c r="S22" s="342"/>
+      <c r="T22" s="342"/>
+      <c r="U22" s="342"/>
+      <c r="V22" s="342"/>
+      <c r="W22" s="342"/>
+      <c r="X22" s="342"/>
+      <c r="Y22" s="342"/>
+      <c r="Z22" s="342"/>
+      <c r="AA22" s="342"/>
+      <c r="AB22" s="342"/>
+      <c r="AC22" s="342"/>
+      <c r="AD22" s="342"/>
+      <c r="AE22" s="343"/>
+      <c r="AF22" s="338"/>
+      <c r="AG22" s="339"/>
+      <c r="AH22" s="339"/>
+      <c r="AI22" s="340"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="296"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="298"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="300"/>
-      <c r="G23" s="296"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="297"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="303"/>
-      <c r="L23" s="303"/>
-      <c r="M23" s="303"/>
-      <c r="N23" s="303"/>
-      <c r="O23" s="303"/>
-      <c r="P23" s="304"/>
-      <c r="Q23" s="305"/>
-      <c r="R23" s="306"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="306"/>
-      <c r="V23" s="306"/>
-      <c r="W23" s="306"/>
-      <c r="X23" s="306"/>
-      <c r="Y23" s="306"/>
-      <c r="Z23" s="306"/>
-      <c r="AA23" s="306"/>
-      <c r="AB23" s="306"/>
-      <c r="AC23" s="306"/>
-      <c r="AD23" s="306"/>
-      <c r="AE23" s="307"/>
-      <c r="AF23" s="302"/>
-      <c r="AG23" s="303"/>
-      <c r="AH23" s="303"/>
-      <c r="AI23" s="304"/>
+      <c r="B23" s="332"/>
+      <c r="C23" s="333"/>
+      <c r="D23" s="334"/>
+      <c r="E23" s="335"/>
+      <c r="F23" s="336"/>
+      <c r="G23" s="332"/>
+      <c r="H23" s="337"/>
+      <c r="I23" s="333"/>
+      <c r="J23" s="338"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+      <c r="N23" s="339"/>
+      <c r="O23" s="339"/>
+      <c r="P23" s="340"/>
+      <c r="Q23" s="341"/>
+      <c r="R23" s="342"/>
+      <c r="S23" s="342"/>
+      <c r="T23" s="342"/>
+      <c r="U23" s="342"/>
+      <c r="V23" s="342"/>
+      <c r="W23" s="342"/>
+      <c r="X23" s="342"/>
+      <c r="Y23" s="342"/>
+      <c r="Z23" s="342"/>
+      <c r="AA23" s="342"/>
+      <c r="AB23" s="342"/>
+      <c r="AC23" s="342"/>
+      <c r="AD23" s="342"/>
+      <c r="AE23" s="343"/>
+      <c r="AF23" s="338"/>
+      <c r="AG23" s="339"/>
+      <c r="AH23" s="339"/>
+      <c r="AI23" s="340"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="296"/>
-      <c r="C24" s="297"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="300"/>
-      <c r="G24" s="296"/>
-      <c r="H24" s="301"/>
-      <c r="I24" s="297"/>
-      <c r="J24" s="302"/>
-      <c r="K24" s="303"/>
-      <c r="L24" s="303"/>
-      <c r="M24" s="303"/>
-      <c r="N24" s="303"/>
-      <c r="O24" s="303"/>
-      <c r="P24" s="304"/>
-      <c r="Q24" s="305"/>
-      <c r="R24" s="306"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="306"/>
-      <c r="V24" s="306"/>
-      <c r="W24" s="306"/>
-      <c r="X24" s="306"/>
-      <c r="Y24" s="306"/>
-      <c r="Z24" s="306"/>
-      <c r="AA24" s="306"/>
-      <c r="AB24" s="306"/>
-      <c r="AC24" s="306"/>
-      <c r="AD24" s="306"/>
-      <c r="AE24" s="307"/>
-      <c r="AF24" s="302"/>
-      <c r="AG24" s="303"/>
-      <c r="AH24" s="303"/>
-      <c r="AI24" s="304"/>
+      <c r="B24" s="332"/>
+      <c r="C24" s="333"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="335"/>
+      <c r="F24" s="336"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="337"/>
+      <c r="I24" s="333"/>
+      <c r="J24" s="338"/>
+      <c r="K24" s="339"/>
+      <c r="L24" s="339"/>
+      <c r="M24" s="339"/>
+      <c r="N24" s="339"/>
+      <c r="O24" s="339"/>
+      <c r="P24" s="340"/>
+      <c r="Q24" s="341"/>
+      <c r="R24" s="342"/>
+      <c r="S24" s="342"/>
+      <c r="T24" s="342"/>
+      <c r="U24" s="342"/>
+      <c r="V24" s="342"/>
+      <c r="W24" s="342"/>
+      <c r="X24" s="342"/>
+      <c r="Y24" s="342"/>
+      <c r="Z24" s="342"/>
+      <c r="AA24" s="342"/>
+      <c r="AB24" s="342"/>
+      <c r="AC24" s="342"/>
+      <c r="AD24" s="342"/>
+      <c r="AE24" s="343"/>
+      <c r="AF24" s="338"/>
+      <c r="AG24" s="339"/>
+      <c r="AH24" s="339"/>
+      <c r="AI24" s="340"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="296"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="298"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="300"/>
-      <c r="G25" s="296"/>
-      <c r="H25" s="301"/>
-      <c r="I25" s="297"/>
-      <c r="J25" s="302"/>
-      <c r="K25" s="303"/>
-      <c r="L25" s="303"/>
-      <c r="M25" s="303"/>
-      <c r="N25" s="303"/>
-      <c r="O25" s="303"/>
-      <c r="P25" s="304"/>
-      <c r="Q25" s="305"/>
-      <c r="R25" s="306"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="306"/>
-      <c r="V25" s="306"/>
-      <c r="W25" s="306"/>
-      <c r="X25" s="306"/>
-      <c r="Y25" s="306"/>
-      <c r="Z25" s="306"/>
-      <c r="AA25" s="306"/>
-      <c r="AB25" s="306"/>
-      <c r="AC25" s="306"/>
-      <c r="AD25" s="306"/>
-      <c r="AE25" s="307"/>
-      <c r="AF25" s="302"/>
-      <c r="AG25" s="303"/>
-      <c r="AH25" s="303"/>
-      <c r="AI25" s="304"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="334"/>
+      <c r="E25" s="335"/>
+      <c r="F25" s="336"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="337"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="338"/>
+      <c r="K25" s="339"/>
+      <c r="L25" s="339"/>
+      <c r="M25" s="339"/>
+      <c r="N25" s="339"/>
+      <c r="O25" s="339"/>
+      <c r="P25" s="340"/>
+      <c r="Q25" s="341"/>
+      <c r="R25" s="342"/>
+      <c r="S25" s="342"/>
+      <c r="T25" s="342"/>
+      <c r="U25" s="342"/>
+      <c r="V25" s="342"/>
+      <c r="W25" s="342"/>
+      <c r="X25" s="342"/>
+      <c r="Y25" s="342"/>
+      <c r="Z25" s="342"/>
+      <c r="AA25" s="342"/>
+      <c r="AB25" s="342"/>
+      <c r="AC25" s="342"/>
+      <c r="AD25" s="342"/>
+      <c r="AE25" s="343"/>
+      <c r="AF25" s="338"/>
+      <c r="AG25" s="339"/>
+      <c r="AH25" s="339"/>
+      <c r="AI25" s="340"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="296"/>
-      <c r="C26" s="297"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="296"/>
-      <c r="H26" s="301"/>
-      <c r="I26" s="297"/>
-      <c r="J26" s="302"/>
-      <c r="K26" s="303"/>
-      <c r="L26" s="303"/>
-      <c r="M26" s="303"/>
-      <c r="N26" s="303"/>
-      <c r="O26" s="303"/>
-      <c r="P26" s="304"/>
-      <c r="Q26" s="305"/>
-      <c r="R26" s="306"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="306"/>
-      <c r="V26" s="306"/>
-      <c r="W26" s="306"/>
-      <c r="X26" s="306"/>
-      <c r="Y26" s="306"/>
-      <c r="Z26" s="306"/>
-      <c r="AA26" s="306"/>
-      <c r="AB26" s="306"/>
-      <c r="AC26" s="306"/>
-      <c r="AD26" s="306"/>
-      <c r="AE26" s="307"/>
-      <c r="AF26" s="302"/>
-      <c r="AG26" s="303"/>
-      <c r="AH26" s="303"/>
-      <c r="AI26" s="304"/>
+      <c r="B26" s="332"/>
+      <c r="C26" s="333"/>
+      <c r="D26" s="334"/>
+      <c r="E26" s="335"/>
+      <c r="F26" s="336"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="337"/>
+      <c r="I26" s="333"/>
+      <c r="J26" s="338"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="339"/>
+      <c r="N26" s="339"/>
+      <c r="O26" s="339"/>
+      <c r="P26" s="340"/>
+      <c r="Q26" s="341"/>
+      <c r="R26" s="342"/>
+      <c r="S26" s="342"/>
+      <c r="T26" s="342"/>
+      <c r="U26" s="342"/>
+      <c r="V26" s="342"/>
+      <c r="W26" s="342"/>
+      <c r="X26" s="342"/>
+      <c r="Y26" s="342"/>
+      <c r="Z26" s="342"/>
+      <c r="AA26" s="342"/>
+      <c r="AB26" s="342"/>
+      <c r="AC26" s="342"/>
+      <c r="AD26" s="342"/>
+      <c r="AE26" s="343"/>
+      <c r="AF26" s="338"/>
+      <c r="AG26" s="339"/>
+      <c r="AH26" s="339"/>
+      <c r="AI26" s="340"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="296"/>
-      <c r="C27" s="297"/>
-      <c r="D27" s="298"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="300"/>
-      <c r="G27" s="296"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="297"/>
-      <c r="J27" s="302"/>
-      <c r="K27" s="303"/>
-      <c r="L27" s="303"/>
-      <c r="M27" s="303"/>
-      <c r="N27" s="303"/>
-      <c r="O27" s="303"/>
-      <c r="P27" s="304"/>
-      <c r="Q27" s="305"/>
-      <c r="R27" s="306"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="306"/>
-      <c r="V27" s="306"/>
-      <c r="W27" s="306"/>
-      <c r="X27" s="306"/>
-      <c r="Y27" s="306"/>
-      <c r="Z27" s="306"/>
-      <c r="AA27" s="306"/>
-      <c r="AB27" s="306"/>
-      <c r="AC27" s="306"/>
-      <c r="AD27" s="306"/>
-      <c r="AE27" s="307"/>
-      <c r="AF27" s="302"/>
-      <c r="AG27" s="303"/>
-      <c r="AH27" s="303"/>
-      <c r="AI27" s="304"/>
+      <c r="B27" s="332"/>
+      <c r="C27" s="333"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="336"/>
+      <c r="G27" s="332"/>
+      <c r="H27" s="337"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="338"/>
+      <c r="K27" s="339"/>
+      <c r="L27" s="339"/>
+      <c r="M27" s="339"/>
+      <c r="N27" s="339"/>
+      <c r="O27" s="339"/>
+      <c r="P27" s="340"/>
+      <c r="Q27" s="341"/>
+      <c r="R27" s="342"/>
+      <c r="S27" s="342"/>
+      <c r="T27" s="342"/>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="342"/>
+      <c r="Z27" s="342"/>
+      <c r="AA27" s="342"/>
+      <c r="AB27" s="342"/>
+      <c r="AC27" s="342"/>
+      <c r="AD27" s="342"/>
+      <c r="AE27" s="343"/>
+      <c r="AF27" s="338"/>
+      <c r="AG27" s="339"/>
+      <c r="AH27" s="339"/>
+      <c r="AI27" s="340"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="296"/>
-      <c r="C28" s="297"/>
-      <c r="D28" s="298"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="300"/>
-      <c r="G28" s="296"/>
-      <c r="H28" s="301"/>
-      <c r="I28" s="297"/>
-      <c r="J28" s="302"/>
-      <c r="K28" s="303"/>
-      <c r="L28" s="303"/>
-      <c r="M28" s="303"/>
-      <c r="N28" s="303"/>
-      <c r="O28" s="303"/>
-      <c r="P28" s="304"/>
-      <c r="Q28" s="305"/>
-      <c r="R28" s="306"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="306"/>
-      <c r="V28" s="306"/>
-      <c r="W28" s="306"/>
-      <c r="X28" s="306"/>
-      <c r="Y28" s="306"/>
-      <c r="Z28" s="306"/>
-      <c r="AA28" s="306"/>
-      <c r="AB28" s="306"/>
-      <c r="AC28" s="306"/>
-      <c r="AD28" s="306"/>
-      <c r="AE28" s="307"/>
-      <c r="AF28" s="302"/>
-      <c r="AG28" s="303"/>
-      <c r="AH28" s="303"/>
-      <c r="AI28" s="304"/>
+      <c r="B28" s="332"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="334"/>
+      <c r="E28" s="335"/>
+      <c r="F28" s="336"/>
+      <c r="G28" s="332"/>
+      <c r="H28" s="337"/>
+      <c r="I28" s="333"/>
+      <c r="J28" s="338"/>
+      <c r="K28" s="339"/>
+      <c r="L28" s="339"/>
+      <c r="M28" s="339"/>
+      <c r="N28" s="339"/>
+      <c r="O28" s="339"/>
+      <c r="P28" s="340"/>
+      <c r="Q28" s="341"/>
+      <c r="R28" s="342"/>
+      <c r="S28" s="342"/>
+      <c r="T28" s="342"/>
+      <c r="U28" s="342"/>
+      <c r="V28" s="342"/>
+      <c r="W28" s="342"/>
+      <c r="X28" s="342"/>
+      <c r="Y28" s="342"/>
+      <c r="Z28" s="342"/>
+      <c r="AA28" s="342"/>
+      <c r="AB28" s="342"/>
+      <c r="AC28" s="342"/>
+      <c r="AD28" s="342"/>
+      <c r="AE28" s="343"/>
+      <c r="AF28" s="338"/>
+      <c r="AG28" s="339"/>
+      <c r="AH28" s="339"/>
+      <c r="AI28" s="340"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="296"/>
-      <c r="C29" s="297"/>
-      <c r="D29" s="298"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="296"/>
-      <c r="H29" s="301"/>
-      <c r="I29" s="297"/>
-      <c r="J29" s="302"/>
-      <c r="K29" s="303"/>
-      <c r="L29" s="303"/>
-      <c r="M29" s="303"/>
-      <c r="N29" s="303"/>
-      <c r="O29" s="303"/>
-      <c r="P29" s="304"/>
-      <c r="Q29" s="305"/>
-      <c r="R29" s="306"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="306"/>
-      <c r="V29" s="306"/>
-      <c r="W29" s="306"/>
-      <c r="X29" s="306"/>
-      <c r="Y29" s="306"/>
-      <c r="Z29" s="306"/>
-      <c r="AA29" s="306"/>
-      <c r="AB29" s="306"/>
-      <c r="AC29" s="306"/>
-      <c r="AD29" s="306"/>
-      <c r="AE29" s="307"/>
-      <c r="AF29" s="302"/>
-      <c r="AG29" s="303"/>
-      <c r="AH29" s="303"/>
-      <c r="AI29" s="304"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="335"/>
+      <c r="F29" s="336"/>
+      <c r="G29" s="332"/>
+      <c r="H29" s="337"/>
+      <c r="I29" s="333"/>
+      <c r="J29" s="338"/>
+      <c r="K29" s="339"/>
+      <c r="L29" s="339"/>
+      <c r="M29" s="339"/>
+      <c r="N29" s="339"/>
+      <c r="O29" s="339"/>
+      <c r="P29" s="340"/>
+      <c r="Q29" s="341"/>
+      <c r="R29" s="342"/>
+      <c r="S29" s="342"/>
+      <c r="T29" s="342"/>
+      <c r="U29" s="342"/>
+      <c r="V29" s="342"/>
+      <c r="W29" s="342"/>
+      <c r="X29" s="342"/>
+      <c r="Y29" s="342"/>
+      <c r="Z29" s="342"/>
+      <c r="AA29" s="342"/>
+      <c r="AB29" s="342"/>
+      <c r="AC29" s="342"/>
+      <c r="AD29" s="342"/>
+      <c r="AE29" s="343"/>
+      <c r="AF29" s="338"/>
+      <c r="AG29" s="339"/>
+      <c r="AH29" s="339"/>
+      <c r="AI29" s="340"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="296"/>
-      <c r="C30" s="297"/>
-      <c r="D30" s="298"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="296"/>
-      <c r="H30" s="301"/>
-      <c r="I30" s="297"/>
-      <c r="J30" s="302"/>
-      <c r="K30" s="303"/>
-      <c r="L30" s="303"/>
-      <c r="M30" s="303"/>
-      <c r="N30" s="303"/>
-      <c r="O30" s="303"/>
-      <c r="P30" s="304"/>
-      <c r="Q30" s="305"/>
-      <c r="R30" s="306"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="306"/>
-      <c r="V30" s="306"/>
-      <c r="W30" s="306"/>
-      <c r="X30" s="306"/>
-      <c r="Y30" s="306"/>
-      <c r="Z30" s="306"/>
-      <c r="AA30" s="306"/>
-      <c r="AB30" s="306"/>
-      <c r="AC30" s="306"/>
-      <c r="AD30" s="306"/>
-      <c r="AE30" s="307"/>
-      <c r="AF30" s="302"/>
-      <c r="AG30" s="303"/>
-      <c r="AH30" s="303"/>
-      <c r="AI30" s="304"/>
+      <c r="B30" s="332"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="334"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="336"/>
+      <c r="G30" s="332"/>
+      <c r="H30" s="337"/>
+      <c r="I30" s="333"/>
+      <c r="J30" s="338"/>
+      <c r="K30" s="339"/>
+      <c r="L30" s="339"/>
+      <c r="M30" s="339"/>
+      <c r="N30" s="339"/>
+      <c r="O30" s="339"/>
+      <c r="P30" s="340"/>
+      <c r="Q30" s="341"/>
+      <c r="R30" s="342"/>
+      <c r="S30" s="342"/>
+      <c r="T30" s="342"/>
+      <c r="U30" s="342"/>
+      <c r="V30" s="342"/>
+      <c r="W30" s="342"/>
+      <c r="X30" s="342"/>
+      <c r="Y30" s="342"/>
+      <c r="Z30" s="342"/>
+      <c r="AA30" s="342"/>
+      <c r="AB30" s="342"/>
+      <c r="AC30" s="342"/>
+      <c r="AD30" s="342"/>
+      <c r="AE30" s="343"/>
+      <c r="AF30" s="338"/>
+      <c r="AG30" s="339"/>
+      <c r="AH30" s="339"/>
+      <c r="AI30" s="340"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="296"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="298"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="296"/>
-      <c r="H31" s="301"/>
-      <c r="I31" s="297"/>
-      <c r="J31" s="302"/>
-      <c r="K31" s="303"/>
-      <c r="L31" s="303"/>
-      <c r="M31" s="303"/>
-      <c r="N31" s="303"/>
-      <c r="O31" s="303"/>
-      <c r="P31" s="304"/>
-      <c r="Q31" s="305"/>
-      <c r="R31" s="306"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="306"/>
-      <c r="V31" s="306"/>
-      <c r="W31" s="306"/>
-      <c r="X31" s="306"/>
-      <c r="Y31" s="306"/>
-      <c r="Z31" s="306"/>
-      <c r="AA31" s="306"/>
-      <c r="AB31" s="306"/>
-      <c r="AC31" s="306"/>
-      <c r="AD31" s="306"/>
-      <c r="AE31" s="307"/>
-      <c r="AF31" s="302"/>
-      <c r="AG31" s="303"/>
-      <c r="AH31" s="303"/>
-      <c r="AI31" s="304"/>
+      <c r="B31" s="332"/>
+      <c r="C31" s="333"/>
+      <c r="D31" s="334"/>
+      <c r="E31" s="335"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="332"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="338"/>
+      <c r="K31" s="339"/>
+      <c r="L31" s="339"/>
+      <c r="M31" s="339"/>
+      <c r="N31" s="339"/>
+      <c r="O31" s="339"/>
+      <c r="P31" s="340"/>
+      <c r="Q31" s="341"/>
+      <c r="R31" s="342"/>
+      <c r="S31" s="342"/>
+      <c r="T31" s="342"/>
+      <c r="U31" s="342"/>
+      <c r="V31" s="342"/>
+      <c r="W31" s="342"/>
+      <c r="X31" s="342"/>
+      <c r="Y31" s="342"/>
+      <c r="Z31" s="342"/>
+      <c r="AA31" s="342"/>
+      <c r="AB31" s="342"/>
+      <c r="AC31" s="342"/>
+      <c r="AD31" s="342"/>
+      <c r="AE31" s="343"/>
+      <c r="AF31" s="338"/>
+      <c r="AG31" s="339"/>
+      <c r="AH31" s="339"/>
+      <c r="AI31" s="340"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="296"/>
-      <c r="C32" s="297"/>
-      <c r="D32" s="298"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="300"/>
-      <c r="G32" s="296"/>
-      <c r="H32" s="301"/>
-      <c r="I32" s="297"/>
-      <c r="J32" s="302"/>
-      <c r="K32" s="308"/>
-      <c r="L32" s="303"/>
-      <c r="M32" s="303"/>
-      <c r="N32" s="303"/>
-      <c r="O32" s="303"/>
-      <c r="P32" s="304"/>
-      <c r="Q32" s="305"/>
-      <c r="R32" s="306"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="306"/>
-      <c r="V32" s="306"/>
-      <c r="W32" s="306"/>
-      <c r="X32" s="306"/>
-      <c r="Y32" s="306"/>
-      <c r="Z32" s="306"/>
-      <c r="AA32" s="306"/>
-      <c r="AB32" s="306"/>
-      <c r="AC32" s="306"/>
-      <c r="AD32" s="306"/>
-      <c r="AE32" s="307"/>
-      <c r="AF32" s="302"/>
-      <c r="AG32" s="303"/>
-      <c r="AH32" s="303"/>
-      <c r="AI32" s="304"/>
+      <c r="B32" s="332"/>
+      <c r="C32" s="333"/>
+      <c r="D32" s="334"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="336"/>
+      <c r="G32" s="332"/>
+      <c r="H32" s="337"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="338"/>
+      <c r="K32" s="357"/>
+      <c r="L32" s="339"/>
+      <c r="M32" s="339"/>
+      <c r="N32" s="339"/>
+      <c r="O32" s="339"/>
+      <c r="P32" s="340"/>
+      <c r="Q32" s="341"/>
+      <c r="R32" s="342"/>
+      <c r="S32" s="342"/>
+      <c r="T32" s="342"/>
+      <c r="U32" s="342"/>
+      <c r="V32" s="342"/>
+      <c r="W32" s="342"/>
+      <c r="X32" s="342"/>
+      <c r="Y32" s="342"/>
+      <c r="Z32" s="342"/>
+      <c r="AA32" s="342"/>
+      <c r="AB32" s="342"/>
+      <c r="AC32" s="342"/>
+      <c r="AD32" s="342"/>
+      <c r="AE32" s="343"/>
+      <c r="AF32" s="338"/>
+      <c r="AG32" s="339"/>
+      <c r="AH32" s="339"/>
+      <c r="AI32" s="340"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="296"/>
-      <c r="C33" s="297"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="296"/>
-      <c r="H33" s="301"/>
-      <c r="I33" s="297"/>
-      <c r="J33" s="302"/>
-      <c r="K33" s="303"/>
-      <c r="L33" s="303"/>
-      <c r="M33" s="303"/>
-      <c r="N33" s="303"/>
-      <c r="O33" s="303"/>
-      <c r="P33" s="304"/>
-      <c r="Q33" s="305"/>
-      <c r="R33" s="306"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="306"/>
-      <c r="V33" s="306"/>
-      <c r="W33" s="306"/>
-      <c r="X33" s="306"/>
-      <c r="Y33" s="306"/>
-      <c r="Z33" s="306"/>
-      <c r="AA33" s="306"/>
-      <c r="AB33" s="306"/>
-      <c r="AC33" s="306"/>
-      <c r="AD33" s="306"/>
-      <c r="AE33" s="307"/>
-      <c r="AF33" s="302"/>
-      <c r="AG33" s="303"/>
-      <c r="AH33" s="303"/>
-      <c r="AI33" s="304"/>
-    </row>
-    <row r="34" spans="1:35" ht="14">
+      <c r="B33" s="332"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="334"/>
+      <c r="E33" s="335"/>
+      <c r="F33" s="336"/>
+      <c r="G33" s="332"/>
+      <c r="H33" s="337"/>
+      <c r="I33" s="333"/>
+      <c r="J33" s="338"/>
+      <c r="K33" s="339"/>
+      <c r="L33" s="339"/>
+      <c r="M33" s="339"/>
+      <c r="N33" s="339"/>
+      <c r="O33" s="339"/>
+      <c r="P33" s="340"/>
+      <c r="Q33" s="341"/>
+      <c r="R33" s="342"/>
+      <c r="S33" s="342"/>
+      <c r="T33" s="342"/>
+      <c r="U33" s="342"/>
+      <c r="V33" s="342"/>
+      <c r="W33" s="342"/>
+      <c r="X33" s="342"/>
+      <c r="Y33" s="342"/>
+      <c r="Z33" s="342"/>
+      <c r="AA33" s="342"/>
+      <c r="AB33" s="342"/>
+      <c r="AC33" s="342"/>
+      <c r="AD33" s="342"/>
+      <c r="AE33" s="343"/>
+      <c r="AF33" s="338"/>
+      <c r="AG33" s="339"/>
+      <c r="AH33" s="339"/>
+      <c r="AI33" s="340"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -6791,162 +6676,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6962,22 +6691,22 @@
   </sheetPr>
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="102" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="102" customWidth="1"/>
     <col min="2" max="2" width="9" style="102" bestFit="1"/>
     <col min="3" max="3" width="14.25" style="102" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="103" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="104" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.58203125" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="23.33203125" style="102" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="30.58203125" style="102" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="102" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="104" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="105" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.375" style="102" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="30.625" style="102" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="102" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="102" customWidth="1"/>
-    <col min="13" max="15" width="8.58203125" style="102" customWidth="1"/>
+    <col min="13" max="15" width="8.625" style="102" customWidth="1"/>
     <col min="16" max="16384" width="9" style="102"/>
   </cols>
   <sheetData>
@@ -6988,7 +6717,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7003,7 +6732,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="102" t="s">
         <v>127</v>
@@ -7023,7 +6752,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="106" t="s">
         <v>132</v>
       </c>
@@ -7045,7 +6774,7 @@
       <c r="Q8" s="106"/>
       <c r="R8" s="106"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1">
+    <row r="9" spans="1:18" ht="12.75" thickTop="1">
       <c r="F9" s="102"/>
       <c r="G9" s="109"/>
     </row>
@@ -7105,7 +6834,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="23.15" customHeight="1">
+    <row r="11" spans="1:18" ht="23.1" customHeight="1">
       <c r="A11" s="120" t="s">
         <v>151</v>
       </c>
@@ -7173,7 +6902,7 @@
       <c r="Q12" s="144"/>
       <c r="R12" s="147"/>
     </row>
-    <row r="13" spans="1:18" s="119" customFormat="1" ht="103.5">
+    <row r="13" spans="1:18" s="119" customFormat="1" ht="108">
       <c r="A13" s="120" t="s">
         <v>162</v>
       </c>
@@ -7182,7 +6911,7 @@
         <v>163</v>
       </c>
       <c r="D13" s="150" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" s="151" t="s">
         <v>164</v>
@@ -7193,7 +6922,7 @@
         <v>154</v>
       </c>
       <c r="I13" s="155" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J13" s="156" t="s">
         <v>165</v>
@@ -7215,7 +6944,7 @@
       <c r="Q13" s="159"/>
       <c r="R13" s="160"/>
     </row>
-    <row r="14" spans="1:18" s="119" customFormat="1" ht="115">
+    <row r="14" spans="1:18" s="119" customFormat="1" ht="120">
       <c r="A14" s="120" t="s">
         <v>167</v>
       </c>
@@ -7223,7 +6952,7 @@
       <c r="C14" s="161"/>
       <c r="D14" s="162"/>
       <c r="E14" s="163" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F14" s="152"/>
       <c r="G14" s="153"/>
@@ -7253,7 +6982,7 @@
       <c r="Q14" s="167"/>
       <c r="R14" s="160"/>
     </row>
-    <row r="15" spans="1:18" s="119" customFormat="1" ht="46">
+    <row r="15" spans="1:18" s="119" customFormat="1" ht="48">
       <c r="A15" s="120" t="s">
         <v>171</v>
       </c>
@@ -7261,7 +6990,7 @@
       <c r="C15" s="161"/>
       <c r="D15" s="162"/>
       <c r="E15" s="168" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F15" s="138"/>
       <c r="G15" s="139"/>
@@ -7269,7 +6998,7 @@
         <v>154</v>
       </c>
       <c r="I15" s="170" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J15" s="170"/>
       <c r="K15" s="170"/>
@@ -7281,7 +7010,7 @@
       <c r="Q15" s="175"/>
       <c r="R15" s="174"/>
     </row>
-    <row r="16" spans="1:18" s="119" customFormat="1" ht="264.5">
+    <row r="16" spans="1:18" s="119" customFormat="1" ht="276">
       <c r="A16" s="120" t="s">
         <v>172</v>
       </c>
@@ -7289,7 +7018,7 @@
       <c r="C16" s="161"/>
       <c r="D16" s="162"/>
       <c r="E16" s="163" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F16" s="152"/>
       <c r="G16" s="153"/>
@@ -7297,7 +7026,7 @@
         <v>154</v>
       </c>
       <c r="I16" s="177" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J16" s="156" t="s">
         <v>173</v>
@@ -7347,14 +7076,14 @@
       <c r="Q17" s="144"/>
       <c r="R17" s="147"/>
     </row>
-    <row r="18" spans="1:18" s="119" customFormat="1" ht="34.5">
+    <row r="18" spans="1:18" s="119" customFormat="1" ht="36">
       <c r="A18" s="181" t="s">
         <v>178</v>
       </c>
       <c r="B18" s="121"/>
       <c r="C18" s="162"/>
       <c r="D18" s="135" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E18" s="184"/>
       <c r="F18" s="138"/>
@@ -7375,7 +7104,7 @@
       <c r="Q18" s="144"/>
       <c r="R18" s="147"/>
     </row>
-    <row r="19" spans="1:18" s="28" customFormat="1" ht="22" hidden="1">
+    <row r="19" spans="1:18" s="28" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="42" t="s">
         <v>0</v>
       </c>
@@ -7409,7 +7138,7 @@
       <c r="Q19" s="29"/>
       <c r="R19" s="34"/>
     </row>
-    <row r="20" spans="1:18" s="28" customFormat="1" ht="11" hidden="1">
+    <row r="20" spans="1:18" s="28" customFormat="1" ht="11.25" hidden="1">
       <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
@@ -7441,7 +7170,7 @@
       <c r="Q20" s="29"/>
       <c r="R20" s="34"/>
     </row>
-    <row r="21" spans="1:18" s="28" customFormat="1" ht="11" hidden="1">
+    <row r="21" spans="1:18" s="28" customFormat="1" ht="11.25" hidden="1">
       <c r="A21" s="42" t="s">
         <v>13</v>
       </c>
@@ -7473,7 +7202,7 @@
       <c r="Q21" s="29"/>
       <c r="R21" s="34"/>
     </row>
-    <row r="22" spans="1:18" s="28" customFormat="1" ht="11" hidden="1">
+    <row r="22" spans="1:18" s="28" customFormat="1" ht="11.25" hidden="1">
       <c r="A22" s="42" t="s">
         <v>19</v>
       </c>
@@ -7543,7 +7272,7 @@
       <c r="C24" s="182"/>
       <c r="D24" s="189"/>
       <c r="E24" s="188" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F24" s="138"/>
       <c r="G24" s="139"/>
@@ -7655,7 +7384,7 @@
       <c r="C28" s="162"/>
       <c r="D28" s="190"/>
       <c r="E28" s="168" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F28" s="138"/>
       <c r="G28" s="139"/>
@@ -7683,7 +7412,7 @@
       <c r="C29" s="162"/>
       <c r="D29" s="191"/>
       <c r="E29" s="191" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F29" s="138"/>
       <c r="G29" s="139"/>
@@ -7703,7 +7432,7 @@
       <c r="Q29" s="144"/>
       <c r="R29" s="147"/>
     </row>
-    <row r="30" spans="1:18" ht="23">
+    <row r="30" spans="1:18" ht="24">
       <c r="A30" s="181" t="s">
         <v>192</v>
       </c>
@@ -7771,7 +7500,7 @@
       <c r="C32" s="161"/>
       <c r="D32" s="197"/>
       <c r="E32" s="194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F32" s="138"/>
       <c r="G32" s="139"/>
@@ -7779,7 +7508,7 @@
         <v>198</v>
       </c>
       <c r="I32" s="196" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J32" s="196"/>
       <c r="K32" s="196"/>
@@ -7791,7 +7520,7 @@
       <c r="Q32" s="175"/>
       <c r="R32" s="174"/>
     </row>
-    <row r="33" spans="1:18" s="119" customFormat="1" ht="57.5">
+    <row r="33" spans="1:18" s="119" customFormat="1" ht="60">
       <c r="A33" s="181" t="s">
         <v>201</v>
       </c>
@@ -7807,7 +7536,7 @@
         <v>198</v>
       </c>
       <c r="I33" s="196" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J33" s="196"/>
       <c r="K33" s="196"/>
@@ -7835,7 +7564,7 @@
         <v>198</v>
       </c>
       <c r="I34" s="196" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J34" s="196"/>
       <c r="K34" s="196"/>
@@ -7997,7 +7726,7 @@
         <v>218</v>
       </c>
       <c r="E40" s="194" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F40" s="138"/>
       <c r="G40" s="139"/>
@@ -8005,7 +7734,7 @@
         <v>198</v>
       </c>
       <c r="I40" s="196" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J40" s="196"/>
       <c r="K40" s="196"/>
@@ -8017,7 +7746,7 @@
       <c r="Q40" s="198"/>
       <c r="R40" s="199"/>
     </row>
-    <row r="41" spans="1:18" ht="57.5">
+    <row r="41" spans="1:18" ht="60">
       <c r="A41" s="201" t="s">
         <v>219</v>
       </c>
@@ -8033,7 +7762,7 @@
         <v>198</v>
       </c>
       <c r="I41" s="196" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J41" s="196"/>
       <c r="K41" s="196"/>
@@ -8109,7 +7838,7 @@
       <c r="C44" s="161"/>
       <c r="D44" s="197"/>
       <c r="E44" s="203" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F44" s="138"/>
       <c r="G44" s="139"/>
@@ -8129,7 +7858,7 @@
       <c r="Q44" s="206"/>
       <c r="R44" s="199"/>
     </row>
-    <row r="45" spans="1:18" ht="23">
+    <row r="45" spans="1:18" ht="24">
       <c r="A45" s="201" t="s">
         <v>224</v>
       </c>
@@ -8159,7 +7888,7 @@
       <c r="Q45" s="213"/>
       <c r="R45" s="147"/>
     </row>
-    <row r="46" spans="1:18" ht="23">
+    <row r="46" spans="1:18" ht="24">
       <c r="A46" s="201" t="s">
         <v>229</v>
       </c>
@@ -8187,7 +7916,7 @@
       <c r="Q46" s="213"/>
       <c r="R46" s="147"/>
     </row>
-    <row r="47" spans="1:18" ht="23">
+    <row r="47" spans="1:18" ht="24">
       <c r="A47" s="201" t="s">
         <v>231</v>
       </c>
@@ -8215,7 +7944,7 @@
       <c r="Q47" s="213"/>
       <c r="R47" s="147"/>
     </row>
-    <row r="48" spans="1:18" ht="23">
+    <row r="48" spans="1:18" ht="24">
       <c r="A48" s="201" t="s">
         <v>233</v>
       </c>
@@ -8243,7 +7972,7 @@
       <c r="Q48" s="213"/>
       <c r="R48" s="147"/>
     </row>
-    <row r="49" spans="1:18" ht="34.5">
+    <row r="49" spans="1:18" ht="36">
       <c r="A49" s="201" t="s">
         <v>235</v>
       </c>
@@ -8271,7 +8000,7 @@
       <c r="Q49" s="213"/>
       <c r="R49" s="147"/>
     </row>
-    <row r="50" spans="1:18" ht="23">
+    <row r="50" spans="1:18" ht="24">
       <c r="A50" s="201" t="s">
         <v>237</v>
       </c>
@@ -8299,7 +8028,7 @@
       <c r="Q50" s="213"/>
       <c r="R50" s="147"/>
     </row>
-    <row r="51" spans="1:18" ht="23">
+    <row r="51" spans="1:18" ht="24">
       <c r="A51" s="201" t="s">
         <v>239</v>
       </c>
@@ -8327,7 +8056,7 @@
       <c r="Q51" s="213"/>
       <c r="R51" s="147"/>
     </row>
-    <row r="52" spans="1:18" ht="23">
+    <row r="52" spans="1:18" ht="24">
       <c r="A52" s="201" t="s">
         <v>241</v>
       </c>
@@ -8355,7 +8084,7 @@
       <c r="Q52" s="213"/>
       <c r="R52" s="147"/>
     </row>
-    <row r="53" spans="1:18" ht="23">
+    <row r="53" spans="1:18" ht="24">
       <c r="A53" s="201" t="s">
         <v>243</v>
       </c>
@@ -8383,7 +8112,7 @@
       <c r="Q53" s="213"/>
       <c r="R53" s="147"/>
     </row>
-    <row r="54" spans="1:18" s="119" customFormat="1" ht="46">
+    <row r="54" spans="1:18" s="119" customFormat="1" ht="48">
       <c r="A54" s="201" t="s">
         <v>87</v>
       </c>
@@ -8394,24 +8123,24 @@
         <v>246</v>
       </c>
       <c r="D54" s="150" t="s">
+        <v>420</v>
+      </c>
+      <c r="E54" s="218" t="s">
         <v>247</v>
-      </c>
-      <c r="E54" s="218" t="s">
-        <v>248</v>
       </c>
       <c r="F54" s="125"/>
       <c r="G54" s="126"/>
       <c r="H54" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="I54" s="162" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" s="220" t="s">
         <v>249</v>
       </c>
-      <c r="I54" s="162" t="s">
-        <v>247</v>
-      </c>
-      <c r="J54" s="220" t="s">
+      <c r="K54" s="220" t="s">
         <v>250</v>
-      </c>
-      <c r="K54" s="220" t="s">
-        <v>251</v>
       </c>
       <c r="L54" s="221"/>
       <c r="M54" s="222"/>
@@ -8427,29 +8156,29 @@
       <c r="Q54" s="133"/>
       <c r="R54" s="134"/>
     </row>
-    <row r="55" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="55" spans="1:18" s="119" customFormat="1" ht="36">
       <c r="A55" s="201" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="162"/>
       <c r="C55" s="162"/>
       <c r="D55" s="162"/>
       <c r="E55" s="218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F55" s="125"/>
       <c r="G55" s="126"/>
       <c r="H55" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I55" s="223" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="224" t="s">
         <v>254</v>
       </c>
-      <c r="J55" s="224" t="s">
+      <c r="K55" s="224" t="s">
         <v>255</v>
-      </c>
-      <c r="K55" s="224" t="s">
-        <v>256</v>
       </c>
       <c r="L55" s="129"/>
       <c r="M55" s="130"/>
@@ -8465,29 +8194,29 @@
       <c r="Q55" s="133"/>
       <c r="R55" s="134"/>
     </row>
-    <row r="56" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="56" spans="1:18" s="119" customFormat="1" ht="24">
       <c r="A56" s="201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" s="162"/>
       <c r="C56" s="162"/>
       <c r="D56" s="162"/>
       <c r="E56" s="218" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" s="125"/>
       <c r="G56" s="126"/>
       <c r="H56" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I56" s="223" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J56" s="224" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" s="224" t="s">
         <v>259</v>
-      </c>
-      <c r="K56" s="224" t="s">
-        <v>260</v>
       </c>
       <c r="L56" s="129"/>
       <c r="M56" s="130"/>
@@ -8503,29 +8232,29 @@
       <c r="Q56" s="133"/>
       <c r="R56" s="134"/>
     </row>
-    <row r="57" spans="1:18" s="226" customFormat="1" ht="57.5">
+    <row r="57" spans="1:18" s="226" customFormat="1" ht="60">
       <c r="A57" s="201" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="162"/>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
       <c r="E57" s="218" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F57" s="152"/>
       <c r="G57" s="153"/>
       <c r="H57" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I57" s="223" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="J57" s="224" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" s="224" t="s">
         <v>263</v>
-      </c>
-      <c r="K57" s="224" t="s">
-        <v>264</v>
       </c>
       <c r="L57" s="129"/>
       <c r="M57" s="130"/>
@@ -8541,29 +8270,29 @@
       <c r="Q57" s="133"/>
       <c r="R57" s="225"/>
     </row>
-    <row r="58" spans="1:18" s="226" customFormat="1" ht="23">
+    <row r="58" spans="1:18" s="226" customFormat="1" ht="24">
       <c r="A58" s="201" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B58" s="162"/>
       <c r="C58" s="162"/>
       <c r="D58" s="227"/>
       <c r="E58" s="218" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F58" s="152"/>
       <c r="G58" s="153"/>
       <c r="H58" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I58" s="223" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J58" s="224" t="s">
+        <v>266</v>
+      </c>
+      <c r="K58" s="224" t="s">
         <v>267</v>
-      </c>
-      <c r="K58" s="224" t="s">
-        <v>268</v>
       </c>
       <c r="L58" s="129"/>
       <c r="M58" s="130"/>
@@ -8579,25 +8308,25 @@
       <c r="Q58" s="133"/>
       <c r="R58" s="225"/>
     </row>
-    <row r="59" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="59" spans="1:18" s="119" customFormat="1" ht="24">
       <c r="A59" s="201" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="162"/>
       <c r="C59" s="162"/>
       <c r="D59" s="150" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="228" t="s">
         <v>269</v>
-      </c>
-      <c r="E59" s="228" t="s">
-        <v>270</v>
       </c>
       <c r="F59" s="138"/>
       <c r="G59" s="139"/>
       <c r="H59" s="229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I59" s="230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J59" s="185"/>
       <c r="K59" s="185"/>
@@ -8609,23 +8338,23 @@
       <c r="Q59" s="144"/>
       <c r="R59" s="147"/>
     </row>
-    <row r="60" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="60" spans="1:18" s="119" customFormat="1" ht="24">
       <c r="A60" s="201" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="162"/>
       <c r="C60" s="162"/>
       <c r="D60" s="162"/>
       <c r="E60" s="185" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F60" s="138"/>
       <c r="G60" s="139"/>
       <c r="H60" s="229" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I60" s="230" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J60" s="185"/>
       <c r="K60" s="185"/>
@@ -8637,29 +8366,29 @@
       <c r="Q60" s="144"/>
       <c r="R60" s="147"/>
     </row>
-    <row r="61" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="61" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="201" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B61" s="162"/>
       <c r="C61" s="162"/>
       <c r="D61" s="227"/>
       <c r="E61" s="224" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F61" s="125"/>
       <c r="G61" s="126"/>
       <c r="H61" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I61" s="223" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="J61" s="224" t="s">
+        <v>274</v>
+      </c>
+      <c r="K61" s="224" t="s">
         <v>275</v>
-      </c>
-      <c r="K61" s="224" t="s">
-        <v>276</v>
       </c>
       <c r="L61" s="129"/>
       <c r="M61" s="130"/>
@@ -8675,31 +8404,31 @@
       <c r="Q61" s="133"/>
       <c r="R61" s="134"/>
     </row>
-    <row r="62" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="62" spans="1:18" s="119" customFormat="1" ht="24">
       <c r="A62" s="201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B62" s="162"/>
       <c r="C62" s="162"/>
       <c r="D62" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" s="224" t="s">
         <v>278</v>
-      </c>
-      <c r="E62" s="224" t="s">
-        <v>279</v>
       </c>
       <c r="F62" s="152"/>
       <c r="G62" s="153"/>
       <c r="H62" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I62" s="223" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="J62" s="224" t="s">
+        <v>279</v>
+      </c>
+      <c r="K62" s="224" t="s">
         <v>280</v>
-      </c>
-      <c r="K62" s="224" t="s">
-        <v>281</v>
       </c>
       <c r="L62" s="129"/>
       <c r="M62" s="130"/>
@@ -8715,29 +8444,29 @@
       <c r="Q62" s="133"/>
       <c r="R62" s="225"/>
     </row>
-    <row r="63" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="63" spans="1:18" s="119" customFormat="1" ht="24">
       <c r="A63" s="201" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B63" s="162"/>
       <c r="C63" s="162"/>
       <c r="D63" s="227"/>
       <c r="E63" s="224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F63" s="152"/>
       <c r="G63" s="153"/>
       <c r="H63" s="219" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I63" s="223" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="J63" s="224" t="s">
+        <v>283</v>
+      </c>
+      <c r="K63" s="224" t="s">
         <v>284</v>
-      </c>
-      <c r="K63" s="224" t="s">
-        <v>285</v>
       </c>
       <c r="L63" s="129"/>
       <c r="M63" s="130"/>
@@ -8753,17 +8482,17 @@
       <c r="Q63" s="133"/>
       <c r="R63" s="225"/>
     </row>
-    <row r="64" spans="1:18" s="119" customFormat="1" ht="34.5">
+    <row r="64" spans="1:18" s="119" customFormat="1" ht="36">
       <c r="A64" s="201" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B64" s="162"/>
       <c r="C64" s="162"/>
       <c r="D64" s="231" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="185" t="s">
         <v>287</v>
-      </c>
-      <c r="E64" s="185" t="s">
-        <v>288</v>
       </c>
       <c r="F64" s="138"/>
       <c r="G64" s="139"/>
@@ -8771,7 +8500,7 @@
         <v>154</v>
       </c>
       <c r="I64" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J64" s="185"/>
       <c r="K64" s="185"/>
@@ -8783,15 +8512,15 @@
       <c r="Q64" s="144"/>
       <c r="R64" s="147"/>
     </row>
-    <row r="65" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="65" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="201" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65" s="162"/>
       <c r="C65" s="162"/>
       <c r="D65" s="190"/>
       <c r="E65" s="185" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F65" s="138"/>
       <c r="G65" s="139"/>
@@ -8799,7 +8528,7 @@
         <v>154</v>
       </c>
       <c r="I65" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J65" s="185"/>
       <c r="K65" s="185"/>
@@ -8811,15 +8540,15 @@
       <c r="Q65" s="144"/>
       <c r="R65" s="147"/>
     </row>
-    <row r="66" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="66" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="201" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="162"/>
       <c r="C66" s="162"/>
       <c r="D66" s="190"/>
       <c r="E66" s="185" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F66" s="138"/>
       <c r="G66" s="139"/>
@@ -8827,7 +8556,7 @@
         <v>154</v>
       </c>
       <c r="I66" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J66" s="185"/>
       <c r="K66" s="185"/>
@@ -8839,7 +8568,7 @@
       <c r="Q66" s="144"/>
       <c r="R66" s="147"/>
     </row>
-    <row r="67" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="67" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="45" t="s">
         <v>25</v>
       </c>
@@ -8871,15 +8600,15 @@
       <c r="Q67" s="29"/>
       <c r="R67" s="34"/>
     </row>
-    <row r="68" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="68" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="201" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B68" s="162"/>
       <c r="C68" s="162"/>
       <c r="D68" s="190"/>
       <c r="E68" s="185" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F68" s="138"/>
       <c r="G68" s="139"/>
@@ -8887,7 +8616,7 @@
         <v>154</v>
       </c>
       <c r="I68" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J68" s="185"/>
       <c r="K68" s="185"/>
@@ -8899,15 +8628,15 @@
       <c r="Q68" s="144"/>
       <c r="R68" s="147"/>
     </row>
-    <row r="69" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="69" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="162"/>
       <c r="C69" s="162"/>
       <c r="D69" s="190"/>
       <c r="E69" s="185" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F69" s="138"/>
       <c r="G69" s="139"/>
@@ -8915,7 +8644,7 @@
         <v>154</v>
       </c>
       <c r="I69" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J69" s="185"/>
       <c r="K69" s="185"/>
@@ -8927,15 +8656,15 @@
       <c r="Q69" s="144"/>
       <c r="R69" s="147"/>
     </row>
-    <row r="70" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="70" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="201" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B70" s="162"/>
       <c r="C70" s="162"/>
       <c r="D70" s="190"/>
       <c r="E70" s="185" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F70" s="138"/>
       <c r="G70" s="139"/>
@@ -8943,7 +8672,7 @@
         <v>154</v>
       </c>
       <c r="I70" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J70" s="185"/>
       <c r="K70" s="185"/>
@@ -8955,15 +8684,15 @@
       <c r="Q70" s="144"/>
       <c r="R70" s="147"/>
     </row>
-    <row r="71" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="71" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="201" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B71" s="162"/>
       <c r="C71" s="162"/>
       <c r="D71" s="191"/>
       <c r="E71" s="185" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="138"/>
       <c r="G71" s="139"/>
@@ -8971,7 +8700,7 @@
         <v>154</v>
       </c>
       <c r="I71" s="230" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J71" s="185"/>
       <c r="K71" s="185"/>
@@ -8983,14 +8712,14 @@
       <c r="Q71" s="144"/>
       <c r="R71" s="147"/>
     </row>
-    <row r="72" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="72" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B72" s="162"/>
       <c r="C72" s="162"/>
       <c r="D72" s="190" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E72" s="185" t="s">
         <v>204</v>
@@ -9001,7 +8730,7 @@
         <v>154</v>
       </c>
       <c r="I72" s="232" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J72" s="185"/>
       <c r="K72" s="185"/>
@@ -9015,15 +8744,15 @@
     </row>
     <row r="73" spans="1:18" s="119" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="201" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B73" s="162"/>
       <c r="C73" s="162"/>
       <c r="D73" s="150" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="224" t="s">
         <v>306</v>
-      </c>
-      <c r="E73" s="224" t="s">
-        <v>307</v>
       </c>
       <c r="F73" s="125"/>
       <c r="G73" s="126"/>
@@ -9031,13 +8760,13 @@
         <v>154</v>
       </c>
       <c r="I73" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="J73" s="233" t="s">
         <v>308</v>
       </c>
-      <c r="J73" s="233" t="s">
+      <c r="K73" s="156" t="s">
         <v>309</v>
-      </c>
-      <c r="K73" s="156" t="s">
-        <v>310</v>
       </c>
       <c r="L73" s="129"/>
       <c r="M73" s="130"/>
@@ -9055,13 +8784,13 @@
     </row>
     <row r="74" spans="1:18" s="119" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="201" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="162"/>
       <c r="C74" s="162"/>
       <c r="D74" s="162"/>
       <c r="E74" s="224" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74" s="125"/>
       <c r="G74" s="126"/>
@@ -9069,13 +8798,13 @@
         <v>154</v>
       </c>
       <c r="I74" s="150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J74" s="156" t="s">
+        <v>312</v>
+      </c>
+      <c r="K74" s="156" t="s">
         <v>313</v>
-      </c>
-      <c r="K74" s="156" t="s">
-        <v>314</v>
       </c>
       <c r="L74" s="129"/>
       <c r="M74" s="130"/>
@@ -9093,13 +8822,13 @@
     </row>
     <row r="75" spans="1:18" s="119" customFormat="1">
       <c r="A75" s="201" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B75" s="162"/>
       <c r="C75" s="162"/>
       <c r="D75" s="227"/>
       <c r="E75" s="185" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F75" s="138"/>
       <c r="G75" s="139"/>
@@ -9107,7 +8836,7 @@
         <v>154</v>
       </c>
       <c r="I75" s="231" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J75" s="185"/>
       <c r="K75" s="185"/>
@@ -9121,15 +8850,15 @@
     </row>
     <row r="76" spans="1:18" s="119" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="201" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76" s="162"/>
       <c r="C76" s="162"/>
       <c r="D76" s="150" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E76" s="224" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F76" s="125"/>
       <c r="G76" s="126"/>
@@ -9137,13 +8866,13 @@
         <v>154</v>
       </c>
       <c r="I76" s="150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J76" s="233" t="s">
+        <v>318</v>
+      </c>
+      <c r="K76" s="156" t="s">
         <v>319</v>
-      </c>
-      <c r="K76" s="156" t="s">
-        <v>320</v>
       </c>
       <c r="L76" s="129"/>
       <c r="M76" s="130"/>
@@ -9159,15 +8888,15 @@
       <c r="Q76" s="133"/>
       <c r="R76" s="134"/>
     </row>
-    <row r="77" spans="1:18" s="119" customFormat="1" ht="34.5">
+    <row r="77" spans="1:18" s="119" customFormat="1" ht="36">
       <c r="A77" s="201" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" s="162"/>
       <c r="C77" s="162"/>
       <c r="D77" s="162"/>
       <c r="E77" s="224" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F77" s="125"/>
       <c r="G77" s="126"/>
@@ -9175,13 +8904,13 @@
         <v>154</v>
       </c>
       <c r="I77" s="150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J77" s="156" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K77" s="156" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L77" s="129"/>
       <c r="M77" s="130"/>
@@ -9199,13 +8928,13 @@
     </row>
     <row r="78" spans="1:18" s="119" customFormat="1">
       <c r="A78" s="201" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B78" s="162"/>
       <c r="C78" s="162"/>
       <c r="D78" s="227"/>
       <c r="E78" s="234" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F78" s="138"/>
       <c r="G78" s="139"/>
@@ -9213,7 +8942,7 @@
         <v>154</v>
       </c>
       <c r="I78" s="231" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J78" s="185"/>
       <c r="K78" s="185"/>
@@ -9225,14 +8954,14 @@
       <c r="Q78" s="144"/>
       <c r="R78" s="147"/>
     </row>
-    <row r="79" spans="1:18" s="119" customFormat="1" ht="23">
+    <row r="79" spans="1:18" s="119" customFormat="1" ht="24">
       <c r="A79" s="201" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B79" s="162"/>
       <c r="C79" s="162"/>
       <c r="D79" s="135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E79" s="235"/>
       <c r="F79" s="138"/>
@@ -9241,7 +8970,7 @@
         <v>154</v>
       </c>
       <c r="I79" s="231" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J79" s="185"/>
       <c r="K79" s="185"/>
@@ -9253,7 +8982,7 @@
       <c r="Q79" s="144"/>
       <c r="R79" s="147"/>
     </row>
-    <row r="80" spans="1:18" s="28" customFormat="1" ht="22" hidden="1">
+    <row r="80" spans="1:18" s="28" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="45" t="s">
         <v>31</v>
       </c>
@@ -9287,29 +9016,29 @@
     </row>
     <row r="81" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="201" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B81" s="162"/>
       <c r="C81" s="150" t="s">
+        <v>326</v>
+      </c>
+      <c r="D81" s="236" t="s">
         <v>327</v>
-      </c>
-      <c r="D81" s="236" t="s">
-        <v>328</v>
       </c>
       <c r="E81" s="237"/>
       <c r="F81" s="125"/>
       <c r="G81" s="126"/>
       <c r="H81" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I81" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I81" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J81" s="156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K81" s="156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L81" s="129"/>
       <c r="M81" s="130"/>
@@ -9327,29 +9056,29 @@
     </row>
     <row r="82" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="201" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B82" s="162"/>
       <c r="C82" s="162"/>
       <c r="D82" s="238" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="239" t="s">
         <v>332</v>
-      </c>
-      <c r="E82" s="239" t="s">
-        <v>333</v>
       </c>
       <c r="F82" s="125"/>
       <c r="G82" s="126"/>
       <c r="H82" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I82" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I82" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J82" s="156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K82" s="156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L82" s="129"/>
       <c r="M82" s="130"/>
@@ -9367,27 +9096,27 @@
     </row>
     <row r="83" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="201" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B83" s="162"/>
       <c r="C83" s="162"/>
       <c r="D83" s="238"/>
       <c r="E83" s="239" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F83" s="152"/>
       <c r="G83" s="153"/>
       <c r="H83" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I83" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I83" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J83" s="224" t="s">
+        <v>335</v>
+      </c>
+      <c r="K83" s="224" t="s">
         <v>336</v>
-      </c>
-      <c r="K83" s="224" t="s">
-        <v>337</v>
       </c>
       <c r="L83" s="129"/>
       <c r="M83" s="130"/>
@@ -9405,27 +9134,27 @@
     </row>
     <row r="84" spans="1:18" s="119" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="201" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B84" s="162"/>
       <c r="C84" s="162"/>
       <c r="D84" s="238" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E84" s="240"/>
       <c r="F84" s="125"/>
       <c r="G84" s="126"/>
       <c r="H84" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I84" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I84" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J84" s="156" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K84" s="156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L84" s="129"/>
       <c r="M84" s="130"/>
@@ -9443,27 +9172,27 @@
     </row>
     <row r="85" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="201" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B85" s="162"/>
       <c r="C85" s="162"/>
       <c r="D85" s="238" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E85" s="240"/>
       <c r="F85" s="125"/>
       <c r="G85" s="126"/>
       <c r="H85" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I85" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I85" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J85" s="156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K85" s="156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L85" s="129"/>
       <c r="M85" s="130"/>
@@ -9481,27 +9210,27 @@
     </row>
     <row r="86" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="201" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B86" s="162"/>
       <c r="C86" s="162"/>
       <c r="D86" s="238" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E86" s="240"/>
       <c r="F86" s="125"/>
       <c r="G86" s="126"/>
       <c r="H86" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I86" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I86" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J86" s="156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K86" s="156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L86" s="129"/>
       <c r="M86" s="130"/>
@@ -9517,7 +9246,7 @@
       <c r="Q86" s="133"/>
       <c r="R86" s="134"/>
     </row>
-    <row r="87" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="87" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="45" t="s">
         <v>37</v>
       </c>
@@ -9549,7 +9278,7 @@
       <c r="Q87" s="29"/>
       <c r="R87" s="34"/>
     </row>
-    <row r="88" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="88" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="45" t="s">
         <v>43</v>
       </c>
@@ -9581,7 +9310,7 @@
       <c r="Q88" s="29"/>
       <c r="R88" s="34"/>
     </row>
-    <row r="89" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="89" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="45" t="s">
         <v>49</v>
       </c>
@@ -9613,7 +9342,7 @@
       <c r="Q89" s="29"/>
       <c r="R89" s="34"/>
     </row>
-    <row r="90" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="45" t="s">
         <v>55</v>
       </c>
@@ -9645,7 +9374,7 @@
       <c r="Q90" s="29"/>
       <c r="R90" s="34"/>
     </row>
-    <row r="91" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="45" t="s">
         <v>61</v>
       </c>
@@ -9679,21 +9408,21 @@
     </row>
     <row r="92" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="201" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B92" s="162"/>
       <c r="C92" s="162"/>
       <c r="D92" s="241" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E92" s="242"/>
       <c r="F92" s="138"/>
       <c r="G92" s="139"/>
       <c r="H92" s="231" t="s">
+        <v>328</v>
+      </c>
+      <c r="I92" s="231" t="s">
         <v>329</v>
-      </c>
-      <c r="I92" s="231" t="s">
-        <v>330</v>
       </c>
       <c r="J92" s="185"/>
       <c r="K92" s="185"/>
@@ -9707,7 +9436,7 @@
     </row>
     <row r="93" spans="1:18" s="119" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="201" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B93" s="162"/>
       <c r="C93" s="162"/>
@@ -9718,16 +9447,16 @@
       <c r="F93" s="152"/>
       <c r="G93" s="153"/>
       <c r="H93" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I93" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I93" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J93" s="156" t="s">
+        <v>347</v>
+      </c>
+      <c r="K93" s="156" t="s">
         <v>348</v>
-      </c>
-      <c r="K93" s="156" t="s">
-        <v>349</v>
       </c>
       <c r="L93" s="129"/>
       <c r="M93" s="130"/>
@@ -9739,27 +9468,27 @@
     </row>
     <row r="94" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="201" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B94" s="162"/>
       <c r="C94" s="162"/>
       <c r="D94" s="238" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E94" s="240"/>
       <c r="F94" s="125"/>
       <c r="G94" s="126"/>
       <c r="H94" s="150" t="s">
+        <v>328</v>
+      </c>
+      <c r="I94" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="I94" s="150" t="s">
-        <v>330</v>
-      </c>
       <c r="J94" s="224" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K94" s="224" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L94" s="129"/>
       <c r="M94" s="130"/>
@@ -9775,23 +9504,23 @@
       <c r="Q94" s="133"/>
       <c r="R94" s="134"/>
     </row>
-    <row r="95" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="95" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="201" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" s="162"/>
       <c r="C95" s="162"/>
       <c r="D95" s="241" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E95" s="242"/>
       <c r="F95" s="138"/>
       <c r="G95" s="139"/>
       <c r="H95" s="244" t="s">
+        <v>328</v>
+      </c>
+      <c r="I95" s="228" t="s">
         <v>329</v>
-      </c>
-      <c r="I95" s="228" t="s">
-        <v>330</v>
       </c>
       <c r="J95" s="185"/>
       <c r="K95" s="185"/>
@@ -9803,23 +9532,23 @@
       <c r="Q95" s="144"/>
       <c r="R95" s="147"/>
     </row>
-    <row r="96" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="96" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="201" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B96" s="162"/>
       <c r="C96" s="162"/>
       <c r="D96" s="241" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E96" s="242"/>
       <c r="F96" s="138"/>
       <c r="G96" s="139"/>
       <c r="H96" s="231" t="s">
+        <v>328</v>
+      </c>
+      <c r="I96" s="231" t="s">
         <v>329</v>
-      </c>
-      <c r="I96" s="231" t="s">
-        <v>330</v>
       </c>
       <c r="J96" s="185"/>
       <c r="K96" s="185"/>
@@ -9831,7 +9560,7 @@
       <c r="Q96" s="144"/>
       <c r="R96" s="147"/>
     </row>
-    <row r="97" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="97" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="45" t="s">
         <v>67</v>
       </c>
@@ -9863,23 +9592,23 @@
       <c r="Q97" s="29"/>
       <c r="R97" s="34"/>
     </row>
-    <row r="98" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="98" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="201" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B98" s="162"/>
       <c r="C98" s="162"/>
       <c r="D98" s="245" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E98" s="246"/>
       <c r="F98" s="138"/>
       <c r="G98" s="139"/>
       <c r="H98" s="231" t="s">
+        <v>328</v>
+      </c>
+      <c r="I98" s="231" t="s">
         <v>329</v>
-      </c>
-      <c r="I98" s="231" t="s">
-        <v>330</v>
       </c>
       <c r="J98" s="185"/>
       <c r="K98" s="185"/>
@@ -9891,23 +9620,23 @@
       <c r="Q98" s="144"/>
       <c r="R98" s="147"/>
     </row>
-    <row r="99" spans="1:18" s="119" customFormat="1" ht="23.15" customHeight="1">
+    <row r="99" spans="1:18" s="119" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="201" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B99" s="162"/>
       <c r="C99" s="162"/>
       <c r="D99" s="245" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E99" s="246"/>
       <c r="F99" s="138"/>
       <c r="G99" s="139"/>
       <c r="H99" s="231" t="s">
+        <v>328</v>
+      </c>
+      <c r="I99" s="231" t="s">
         <v>329</v>
-      </c>
-      <c r="I99" s="231" t="s">
-        <v>330</v>
       </c>
       <c r="J99" s="185"/>
       <c r="K99" s="185"/>
@@ -9921,21 +9650,21 @@
     </row>
     <row r="100" spans="1:18" s="119" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="247" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B100" s="162"/>
       <c r="C100" s="162"/>
       <c r="D100" s="248" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E100" s="249"/>
       <c r="F100" s="138"/>
       <c r="G100" s="139"/>
       <c r="H100" s="250" t="s">
+        <v>328</v>
+      </c>
+      <c r="I100" s="251" t="s">
         <v>329</v>
-      </c>
-      <c r="I100" s="251" t="s">
-        <v>330</v>
       </c>
       <c r="J100" s="252"/>
       <c r="K100" s="252"/>
@@ -9947,7 +9676,7 @@
       <c r="Q100" s="255"/>
       <c r="R100" s="258"/>
     </row>
-    <row r="101" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="101" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="60" t="s">
         <v>73</v>
       </c>
@@ -9979,7 +9708,7 @@
       <c r="Q101" s="55"/>
       <c r="R101" s="61"/>
     </row>
-    <row r="102" spans="1:18" s="28" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="102" spans="1:18" s="28" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="62" t="s">
         <v>79</v>
       </c>
@@ -10209,22 +9938,20 @@
   </sheetPr>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="102" customWidth="1"/>
-    <col min="2" max="3" width="10.58203125" style="102" customWidth="1"/>
-    <col min="4" max="5" width="15.58203125" style="103" customWidth="1"/>
-    <col min="6" max="6" width="6.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.58203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.58203125" style="102" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.58203125" style="102" customWidth="1"/>
-    <col min="10" max="11" width="30.58203125" style="102" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" style="102" customWidth="1"/>
-    <col min="13" max="16" width="8.58203125" style="102" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="102" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="102" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="103" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="102" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.625" style="102" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="102" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="102" customWidth="1"/>
+    <col min="13" max="16" width="8.625" style="102" customWidth="1"/>
     <col min="17" max="16384" width="9" style="102"/>
   </cols>
   <sheetData>
@@ -10235,7 +9962,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -10250,7 +9977,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J6" s="102" t="s">
         <v>127</v>
@@ -10261,7 +9988,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J7" s="102" t="s">
         <v>130</v>
@@ -10270,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="106"/>
       <c r="B8" s="106"/>
       <c r="C8" s="106"/>
@@ -10290,10 +10017,10 @@
       <c r="Q8" s="106"/>
       <c r="R8" s="106"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1">
+    <row r="9" spans="1:18" ht="12.75" thickTop="1">
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:18" s="119" customFormat="1" ht="10" customHeight="1">
+    <row r="10" spans="1:18" s="119" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>133</v>
       </c>
@@ -10349,38 +10076,38 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="119" customFormat="1" ht="57.5">
+    <row r="11" spans="1:18" s="119" customFormat="1" ht="60">
       <c r="A11" s="263" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="264" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C11" s="264" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="122" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E11" s="265"/>
       <c r="F11" s="81"/>
       <c r="G11" s="81"/>
       <c r="H11" s="264" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="264" t="s">
         <v>378</v>
       </c>
-      <c r="I11" s="264" t="s">
+      <c r="J11" s="277" t="s">
         <v>379</v>
       </c>
-      <c r="J11" s="277" t="s">
+      <c r="K11" s="277" t="s">
         <v>380</v>
-      </c>
-      <c r="K11" s="277" t="s">
-        <v>381</v>
       </c>
       <c r="L11" s="278"/>
       <c r="M11" s="279"/>
       <c r="N11" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O11" s="132">
         <v>43737</v>
@@ -10398,16 +10125,16 @@
       <c r="B12" s="267"/>
       <c r="C12" s="267"/>
       <c r="D12" s="268" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E12" s="269"/>
       <c r="F12" s="81"/>
       <c r="G12" s="81"/>
       <c r="H12" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I12" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J12" s="281"/>
       <c r="K12" s="281"/>
@@ -10426,16 +10153,16 @@
       <c r="B13" s="267"/>
       <c r="C13" s="267"/>
       <c r="D13" s="268" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E13" s="269"/>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
       <c r="H13" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I13" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J13" s="281"/>
       <c r="K13" s="281"/>
@@ -10454,16 +10181,16 @@
       <c r="B14" s="267"/>
       <c r="C14" s="267"/>
       <c r="D14" s="268" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" s="269"/>
       <c r="F14" s="81"/>
       <c r="G14" s="81"/>
       <c r="H14" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I14" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J14" s="281"/>
       <c r="K14" s="281"/>
@@ -10482,21 +10209,21 @@
       <c r="B15" s="267"/>
       <c r="C15" s="267"/>
       <c r="D15" s="270" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E15" s="271" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F15" s="81"/>
       <c r="G15" s="81"/>
       <c r="H15" s="264" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I15" s="264" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J15" s="156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K15" s="156" t="s">
         <v>157</v>
@@ -10504,7 +10231,7 @@
       <c r="L15" s="285"/>
       <c r="M15" s="286"/>
       <c r="N15" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O15" s="132">
         <v>43737</v>
@@ -10517,21 +10244,21 @@
     </row>
     <row r="16" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="266" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B16" s="267"/>
       <c r="C16" s="267"/>
       <c r="D16" s="267"/>
       <c r="E16" s="232" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F16" s="81"/>
       <c r="G16" s="81"/>
       <c r="H16" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I16" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J16" s="281"/>
       <c r="K16" s="281"/>
@@ -10545,21 +10272,21 @@
     </row>
     <row r="17" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="266" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B17" s="267"/>
       <c r="C17" s="267"/>
       <c r="D17" s="267"/>
       <c r="E17" s="272" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F17" s="81"/>
       <c r="G17" s="81"/>
       <c r="H17" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I17" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J17" s="281"/>
       <c r="K17" s="281"/>
@@ -10573,7 +10300,7 @@
     </row>
     <row r="18" spans="1:18" s="119" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="266" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" s="267"/>
       <c r="C18" s="267"/>
@@ -10584,21 +10311,21 @@
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="264" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="264" t="s">
+        <v>382</v>
+      </c>
+      <c r="J18" s="156" t="s">
         <v>383</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="K18" s="156" t="s">
         <v>384</v>
-      </c>
-      <c r="K18" s="156" t="s">
-        <v>385</v>
       </c>
       <c r="L18" s="285"/>
       <c r="M18" s="286"/>
       <c r="N18" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O18" s="132">
         <v>43737</v>
@@ -10611,7 +10338,7 @@
     </row>
     <row r="19" spans="1:18" s="119" customFormat="1" ht="56.25" customHeight="1">
       <c r="A19" s="266" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B19" s="267"/>
       <c r="C19" s="267"/>
@@ -10622,15 +10349,15 @@
       <c r="H19" s="162"/>
       <c r="I19" s="162"/>
       <c r="J19" s="156" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K19" s="156" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L19" s="285"/>
       <c r="M19" s="286"/>
       <c r="N19" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O19" s="132">
         <v>43737</v>
@@ -10643,7 +10370,7 @@
     </row>
     <row r="20" spans="1:18" s="119" customFormat="1" ht="53.25" customHeight="1">
       <c r="A20" s="266" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B20" s="267"/>
       <c r="C20" s="267"/>
@@ -10654,15 +10381,15 @@
       <c r="H20" s="162"/>
       <c r="I20" s="162"/>
       <c r="J20" s="156" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K20" s="156" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L20" s="285"/>
       <c r="M20" s="286"/>
       <c r="N20" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O20" s="132">
         <v>43737</v>
@@ -10675,7 +10402,7 @@
     </row>
     <row r="21" spans="1:18" s="119" customFormat="1" ht="68.25" customHeight="1">
       <c r="A21" s="266" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B21" s="267"/>
       <c r="C21" s="267"/>
@@ -10686,15 +10413,15 @@
       <c r="H21" s="227"/>
       <c r="I21" s="227"/>
       <c r="J21" s="156" t="s">
+        <v>387</v>
+      </c>
+      <c r="K21" s="156" t="s">
         <v>388</v>
-      </c>
-      <c r="K21" s="156" t="s">
-        <v>389</v>
       </c>
       <c r="L21" s="285"/>
       <c r="M21" s="286"/>
       <c r="N21" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O21" s="132">
         <v>43737</v>
@@ -10712,18 +10439,18 @@
       <c r="B22" s="267"/>
       <c r="C22" s="267"/>
       <c r="D22" s="272" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" s="232" t="s">
         <v>374</v>
-      </c>
-      <c r="E22" s="232" t="s">
-        <v>375</v>
       </c>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="H22" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I22" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J22" s="281"/>
       <c r="K22" s="281"/>
@@ -10742,29 +10469,29 @@
       <c r="B23" s="267"/>
       <c r="C23" s="267"/>
       <c r="D23" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="E23" s="274" t="s">
         <v>416</v>
-      </c>
-      <c r="E23" s="274" t="s">
-        <v>417</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="H23" s="264" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I23" s="264" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J23" s="156" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="156" t="s">
         <v>390</v>
-      </c>
-      <c r="K23" s="156" t="s">
-        <v>391</v>
       </c>
       <c r="L23" s="287"/>
       <c r="M23" s="288"/>
       <c r="N23" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O23" s="132">
         <v>43737</v>
@@ -10782,27 +10509,27 @@
       <c r="B24" s="267"/>
       <c r="C24" s="267"/>
       <c r="D24" s="358" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E24" s="359"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
       <c r="H24" s="264" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I24" s="264" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J24" s="156" t="s">
+        <v>391</v>
+      </c>
+      <c r="K24" s="156" t="s">
         <v>392</v>
-      </c>
-      <c r="K24" s="156" t="s">
-        <v>393</v>
       </c>
       <c r="L24" s="287"/>
       <c r="M24" s="288"/>
       <c r="N24" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O24" s="132">
         <v>43737</v>
@@ -10822,16 +10549,16 @@
         <v>163</v>
       </c>
       <c r="D25" s="268" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E25" s="269"/>
       <c r="F25" s="81"/>
       <c r="G25" s="81"/>
       <c r="H25" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I25" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J25" s="281"/>
       <c r="K25" s="281"/>
@@ -10850,16 +10577,16 @@
       <c r="B26" s="273"/>
       <c r="C26" s="276"/>
       <c r="D26" s="268" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E26" s="269"/>
       <c r="F26" s="81"/>
       <c r="G26" s="81"/>
       <c r="H26" s="280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I26" s="280" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J26" s="281"/>
       <c r="K26" s="281"/>
